--- a/Exports/CompleteResultWithoutCoolingEffect.xlsx
+++ b/Exports/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="17">
   <si>
     <t>Index</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,40 +1017,5870 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30045</v>
+        <v>3010</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41034.41597222222</v>
       </c>
       <c r="D12">
-        <v>111.73</v>
+        <v>12.73</v>
       </c>
       <c r="E12">
-        <v>589.9</v>
+        <v>207.81</v>
       </c>
       <c r="F12">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="G12">
-        <v>71.85000000000001</v>
+        <v>14.58</v>
       </c>
       <c r="H12">
-        <v>111.73</v>
+        <v>12.73</v>
       </c>
       <c r="I12">
-        <v>222.07</v>
+        <v>77.58</v>
       </c>
       <c r="J12">
-        <v>115.3571241809495</v>
+        <v>13.94014614069857</v>
       </c>
       <c r="K12">
-        <v>149.4271883811578</v>
+        <v>30.2377931519521</v>
       </c>
       <c r="L12">
-        <v>1.921008</v>
+        <v>0.3842016</v>
       </c>
       <c r="M12">
-        <v>0.097</v>
+        <v>0.032</v>
       </c>
       <c r="N12">
-        <v>179.09</v>
+        <v>32.32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3011</v>
+      </c>
+      <c r="C13" s="2">
+        <v>41034.45763888889</v>
+      </c>
+      <c r="D13">
+        <v>13.07</v>
+      </c>
+      <c r="E13">
+        <v>260.82</v>
+      </c>
+      <c r="F13">
+        <v>123</v>
+      </c>
+      <c r="G13">
+        <v>14.73</v>
+      </c>
+      <c r="H13">
+        <v>13.07</v>
+      </c>
+      <c r="I13">
+        <v>96.19</v>
+      </c>
+      <c r="J13">
+        <v>14.55200505217374</v>
+      </c>
+      <c r="K13">
+        <v>30.37614167779422</v>
+      </c>
+      <c r="L13">
+        <v>0.3842016</v>
+      </c>
+      <c r="M13">
+        <v>0.04</v>
+      </c>
+      <c r="N13">
+        <v>32.52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3012</v>
+      </c>
+      <c r="C14" s="2">
+        <v>41034.49930555555</v>
+      </c>
+      <c r="D14">
+        <v>13.41</v>
+      </c>
+      <c r="E14">
+        <v>247.78</v>
+      </c>
+      <c r="F14">
+        <v>117</v>
+      </c>
+      <c r="G14">
+        <v>14.71</v>
+      </c>
+      <c r="H14">
+        <v>13.41</v>
+      </c>
+      <c r="I14">
+        <v>91.53</v>
+      </c>
+      <c r="J14">
+        <v>14.82406893588688</v>
+      </c>
+      <c r="K14">
+        <v>30.43531218629886</v>
+      </c>
+      <c r="L14">
+        <v>0.3842016</v>
+      </c>
+      <c r="M14">
+        <v>0.038</v>
+      </c>
+      <c r="N14">
+        <v>32.48</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3013</v>
+      </c>
+      <c r="C15" s="2">
+        <v>41034.54097222222</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>351.45</v>
+      </c>
+      <c r="F15">
+        <v>165</v>
+      </c>
+      <c r="G15">
+        <v>14.79</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>128.91</v>
+      </c>
+      <c r="J15">
+        <v>14.95934359991674</v>
+      </c>
+      <c r="K15">
+        <v>30.47230142016583</v>
+      </c>
+      <c r="L15">
+        <v>0.3842016</v>
+      </c>
+      <c r="M15">
+        <v>0.053</v>
+      </c>
+      <c r="N15">
+        <v>32.12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3014</v>
+      </c>
+      <c r="C16" s="2">
+        <v>41034.58263888889</v>
+      </c>
+      <c r="D16">
+        <v>12.58</v>
+      </c>
+      <c r="E16">
+        <v>186.24</v>
+      </c>
+      <c r="F16">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>14.7</v>
+      </c>
+      <c r="H16">
+        <v>12.58</v>
+      </c>
+      <c r="I16">
+        <v>68.87</v>
+      </c>
+      <c r="J16">
+        <v>13.66275767699437</v>
+      </c>
+      <c r="K16">
+        <v>30.17515593745571</v>
+      </c>
+      <c r="L16">
+        <v>0.3842016</v>
+      </c>
+      <c r="M16">
+        <v>0.029</v>
+      </c>
+      <c r="N16">
+        <v>32.95</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3015</v>
+      </c>
+      <c r="C17" s="2">
+        <v>41034.62430555555</v>
+      </c>
+      <c r="D17">
+        <v>12.17</v>
+      </c>
+      <c r="E17">
+        <v>82.86</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>14.39</v>
+      </c>
+      <c r="H17">
+        <v>12.17</v>
+      </c>
+      <c r="I17">
+        <v>31.44</v>
+      </c>
+      <c r="J17">
+        <v>12.70617031950417</v>
+      </c>
+      <c r="K17">
+        <v>29.95811403317437</v>
+      </c>
+      <c r="L17">
+        <v>0.3842016</v>
+      </c>
+      <c r="M17">
+        <v>0.014</v>
+      </c>
+      <c r="N17">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3016</v>
+      </c>
+      <c r="C18" s="2">
+        <v>41034.66597222222</v>
+      </c>
+      <c r="D18">
+        <v>11.59</v>
+      </c>
+      <c r="E18">
+        <v>63.35</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>14.19</v>
+      </c>
+      <c r="H18">
+        <v>11.59</v>
+      </c>
+      <c r="I18">
+        <v>24.43</v>
+      </c>
+      <c r="J18">
+        <v>12.02349195697349</v>
+      </c>
+      <c r="K18">
+        <v>29.80746803589752</v>
+      </c>
+      <c r="L18">
+        <v>0.3842016</v>
+      </c>
+      <c r="M18">
+        <v>0.012</v>
+      </c>
+      <c r="N18">
+        <v>38.71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3017</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41034.70763888889</v>
+      </c>
+      <c r="D19">
+        <v>11.01</v>
+      </c>
+      <c r="E19">
+        <v>40.45</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>14.05</v>
+      </c>
+      <c r="H19">
+        <v>11.01</v>
+      </c>
+      <c r="I19">
+        <v>15.79</v>
+      </c>
+      <c r="J19">
+        <v>11.31709291673542</v>
+      </c>
+      <c r="K19">
+        <v>29.6517379922805</v>
+      </c>
+      <c r="L19">
+        <v>0.3842016</v>
+      </c>
+      <c r="M19">
+        <v>0.008</v>
+      </c>
+      <c r="N19">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3018</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41034.74930555555</v>
+      </c>
+      <c r="D20">
+        <v>10.44</v>
+      </c>
+      <c r="E20">
+        <v>11.18</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>15.53</v>
+      </c>
+      <c r="H20">
+        <v>10.44</v>
+      </c>
+      <c r="I20">
+        <v>3.87</v>
+      </c>
+      <c r="J20">
+        <v>10.57283940363533</v>
+      </c>
+      <c r="K20">
+        <v>29.48757645996879</v>
+      </c>
+      <c r="L20">
+        <v>0.3842016</v>
+      </c>
+      <c r="M20">
+        <v>0.004</v>
+      </c>
+      <c r="N20">
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3019</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41034.79097222222</v>
+      </c>
+      <c r="D21">
+        <v>10.09</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>10.09</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>10.09</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3020</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41034.83263888889</v>
+      </c>
+      <c r="D22">
+        <v>9.74</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>9.74</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>9.74</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3021</v>
+      </c>
+      <c r="C23" s="2">
+        <v>41034.87430555555</v>
+      </c>
+      <c r="D23">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3022</v>
+      </c>
+      <c r="C24" s="2">
+        <v>41034.91597222222</v>
+      </c>
+      <c r="D24">
+        <v>9.19</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>9.19</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>9.19</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3023</v>
+      </c>
+      <c r="C25" s="2">
+        <v>41034.95763888889</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3024</v>
+      </c>
+      <c r="C26" s="2">
+        <v>41034.99930555555</v>
+      </c>
+      <c r="D26">
+        <v>8.81</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>8.81</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8.81</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3025</v>
+      </c>
+      <c r="C27" s="2">
+        <v>41035.04097222222</v>
+      </c>
+      <c r="D27">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3026</v>
+      </c>
+      <c r="C28" s="2">
+        <v>41035.08263888889</v>
+      </c>
+      <c r="D28">
+        <v>9.09</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>9.09</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>9.09</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3027</v>
+      </c>
+      <c r="C29" s="2">
+        <v>41035.12430555555</v>
+      </c>
+      <c r="D29">
+        <v>9.23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>9.23</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>9.23</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3028</v>
+      </c>
+      <c r="C30" s="2">
+        <v>41035.16597222222</v>
+      </c>
+      <c r="D30">
+        <v>9.27</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>9.27</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>9.27</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3029</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41035.20763888889</v>
+      </c>
+      <c r="D31">
+        <v>9.31</v>
+      </c>
+      <c r="E31">
+        <v>116.25</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>14.68</v>
+      </c>
+      <c r="H31">
+        <v>9.31</v>
+      </c>
+      <c r="I31">
+        <v>43.06</v>
+      </c>
+      <c r="J31">
+        <v>10.01425774335297</v>
+      </c>
+      <c r="K31">
+        <v>29.3738627062135</v>
+      </c>
+      <c r="L31">
+        <v>0.3842016</v>
+      </c>
+      <c r="M31">
+        <v>0.019</v>
+      </c>
+      <c r="N31">
+        <v>34.55</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3030</v>
+      </c>
+      <c r="C32" s="2">
+        <v>41035.24930555555</v>
+      </c>
+      <c r="D32">
+        <v>9.35</v>
+      </c>
+      <c r="E32">
+        <v>71.2</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>14.54</v>
+      </c>
+      <c r="H32">
+        <v>9.35</v>
+      </c>
+      <c r="I32">
+        <v>26.67</v>
+      </c>
+      <c r="J32">
+        <v>9.814998540506849</v>
+      </c>
+      <c r="K32">
+        <v>29.32758213857537</v>
+      </c>
+      <c r="L32">
+        <v>0.3842016</v>
+      </c>
+      <c r="M32">
+        <v>0.012</v>
+      </c>
+      <c r="N32">
+        <v>35.29</v>
+      </c>
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3031</v>
+      </c>
+      <c r="C33" s="2">
+        <v>41035.29097222222</v>
+      </c>
+      <c r="D33">
+        <v>10.04</v>
+      </c>
+      <c r="E33">
+        <v>89.05</v>
+      </c>
+      <c r="F33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>14.38</v>
+      </c>
+      <c r="H33">
+        <v>10.04</v>
+      </c>
+      <c r="I33">
+        <v>33.8</v>
+      </c>
+      <c r="J33">
+        <v>10.60941508447252</v>
+      </c>
+      <c r="K33">
+        <v>29.50124692395784</v>
+      </c>
+      <c r="L33">
+        <v>0.3842016</v>
+      </c>
+      <c r="M33">
+        <v>0.015</v>
+      </c>
+      <c r="N33">
+        <v>34.88</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3032</v>
+      </c>
+      <c r="C34" s="2">
+        <v>41035.33263888889</v>
+      </c>
+      <c r="D34">
+        <v>10.72</v>
+      </c>
+      <c r="E34">
+        <v>302.18</v>
+      </c>
+      <c r="F34">
+        <v>141</v>
+      </c>
+      <c r="G34">
+        <v>14.88</v>
+      </c>
+      <c r="H34">
+        <v>10.72</v>
+      </c>
+      <c r="I34">
+        <v>110.03</v>
+      </c>
+      <c r="J34">
+        <v>12.40278817880585</v>
+      </c>
+      <c r="K34">
+        <v>29.9066047778883</v>
+      </c>
+      <c r="L34">
+        <v>0.3842016</v>
+      </c>
+      <c r="M34">
+        <v>0.045</v>
+      </c>
+      <c r="N34">
+        <v>31.91</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3033</v>
+      </c>
+      <c r="C35" s="2">
+        <v>41035.37430555555</v>
+      </c>
+      <c r="D35">
+        <v>11.41</v>
+      </c>
+      <c r="E35">
+        <v>519.24</v>
+      </c>
+      <c r="F35">
+        <v>241</v>
+      </c>
+      <c r="G35">
+        <v>14.96</v>
+      </c>
+      <c r="H35">
+        <v>11.41</v>
+      </c>
+      <c r="I35">
+        <v>187.74</v>
+      </c>
+      <c r="J35">
+        <v>14.22780136318318</v>
+      </c>
+      <c r="K35">
+        <v>30.32175400867441</v>
+      </c>
+      <c r="L35">
+        <v>0.3842016</v>
+      </c>
+      <c r="M35">
+        <v>0.076</v>
+      </c>
+      <c r="N35">
+        <v>31.54</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3034</v>
+      </c>
+      <c r="C36" s="2">
+        <v>41035.41597222222</v>
+      </c>
+      <c r="D36">
+        <v>11.83</v>
+      </c>
+      <c r="E36">
+        <v>225.06</v>
+      </c>
+      <c r="F36">
+        <v>106</v>
+      </c>
+      <c r="G36">
+        <v>14.74</v>
+      </c>
+      <c r="H36">
+        <v>11.83</v>
+      </c>
+      <c r="I36">
+        <v>82.88</v>
+      </c>
+      <c r="J36">
+        <v>13.11708347062614</v>
+      </c>
+      <c r="K36">
+        <v>30.05795608445971</v>
+      </c>
+      <c r="L36">
+        <v>0.3842016</v>
+      </c>
+      <c r="M36">
+        <v>0.035</v>
+      </c>
+      <c r="N36">
+        <v>33.02</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3035</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41035.45763888889</v>
+      </c>
+      <c r="D37">
+        <v>12.25</v>
+      </c>
+      <c r="E37">
+        <v>531.62</v>
+      </c>
+      <c r="F37">
+        <v>248</v>
+      </c>
+      <c r="G37">
+        <v>14.89</v>
+      </c>
+      <c r="H37">
+        <v>12.25</v>
+      </c>
+      <c r="I37">
+        <v>193.32</v>
+      </c>
+      <c r="J37">
+        <v>15.15046528698366</v>
+      </c>
+      <c r="K37">
+        <v>30.52628009547266</v>
+      </c>
+      <c r="L37">
+        <v>0.3842016</v>
+      </c>
+      <c r="M37">
+        <v>0.078</v>
+      </c>
+      <c r="N37">
+        <v>31.45</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3036</v>
+      </c>
+      <c r="C38" s="2">
+        <v>41035.49930555555</v>
+      </c>
+      <c r="D38">
+        <v>12.67</v>
+      </c>
+      <c r="E38">
+        <v>352.03</v>
+      </c>
+      <c r="F38">
+        <v>165</v>
+      </c>
+      <c r="G38">
+        <v>14.82</v>
+      </c>
+      <c r="H38">
+        <v>12.67</v>
+      </c>
+      <c r="I38">
+        <v>128.81</v>
+      </c>
+      <c r="J38">
+        <v>14.62857595775677</v>
+      </c>
+      <c r="K38">
+        <v>30.39905134696173</v>
+      </c>
+      <c r="L38">
+        <v>0.3842016</v>
+      </c>
+      <c r="M38">
+        <v>0.053</v>
+      </c>
+      <c r="N38">
+        <v>32.12</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3037</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41035.54097222222</v>
+      </c>
+      <c r="D39">
+        <v>12.37</v>
+      </c>
+      <c r="E39">
+        <v>266.85</v>
+      </c>
+      <c r="F39">
+        <v>126</v>
+      </c>
+      <c r="G39">
+        <v>14.71</v>
+      </c>
+      <c r="H39">
+        <v>12.37</v>
+      </c>
+      <c r="I39">
+        <v>98.55</v>
+      </c>
+      <c r="J39">
+        <v>13.88617452968919</v>
+      </c>
+      <c r="K39">
+        <v>30.22988533670927</v>
+      </c>
+      <c r="L39">
+        <v>0.3842016</v>
+      </c>
+      <c r="M39">
+        <v>0.041</v>
+      </c>
+      <c r="N39">
+        <v>32.54</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3038</v>
+      </c>
+      <c r="C40" s="2">
+        <v>41035.58263888889</v>
+      </c>
+      <c r="D40">
+        <v>12.06</v>
+      </c>
+      <c r="E40">
+        <v>271.3</v>
+      </c>
+      <c r="F40">
+        <v>127</v>
+      </c>
+      <c r="G40">
+        <v>14.83</v>
+      </c>
+      <c r="H40">
+        <v>12.06</v>
+      </c>
+      <c r="I40">
+        <v>99.19</v>
+      </c>
+      <c r="J40">
+        <v>13.58505280795504</v>
+      </c>
+      <c r="K40">
+        <v>30.16383336856728</v>
+      </c>
+      <c r="L40">
+        <v>0.3842016</v>
+      </c>
+      <c r="M40">
+        <v>0.041</v>
+      </c>
+      <c r="N40">
+        <v>32.28</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3039</v>
+      </c>
+      <c r="C41" s="2">
+        <v>41035.62430555555</v>
+      </c>
+      <c r="D41">
+        <v>11.76</v>
+      </c>
+      <c r="E41">
+        <v>111.96</v>
+      </c>
+      <c r="F41">
+        <v>54</v>
+      </c>
+      <c r="G41">
+        <v>14.4</v>
+      </c>
+      <c r="H41">
+        <v>11.76</v>
+      </c>
+      <c r="I41">
+        <v>42.43</v>
+      </c>
+      <c r="J41">
+        <v>12.45639857884777</v>
+      </c>
+      <c r="K41">
+        <v>29.90555751683794</v>
+      </c>
+      <c r="L41">
+        <v>0.3842016</v>
+      </c>
+      <c r="M41">
+        <v>0.019</v>
+      </c>
+      <c r="N41">
+        <v>35.19</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3040</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41035.66597222222</v>
+      </c>
+      <c r="D42">
+        <v>11.38</v>
+      </c>
+      <c r="E42">
+        <v>113.96</v>
+      </c>
+      <c r="F42">
+        <v>55</v>
+      </c>
+      <c r="G42">
+        <v>14.39</v>
+      </c>
+      <c r="H42">
+        <v>11.38</v>
+      </c>
+      <c r="I42">
+        <v>43.22</v>
+      </c>
+      <c r="J42">
+        <v>12.08772648088183</v>
+      </c>
+      <c r="K42">
+        <v>29.82510716880017</v>
+      </c>
+      <c r="L42">
+        <v>0.3842016</v>
+      </c>
+      <c r="M42">
+        <v>0.019</v>
+      </c>
+      <c r="N42">
+        <v>34.55</v>
+      </c>
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3041</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41035.70763888889</v>
+      </c>
+      <c r="D43">
+        <v>11.01</v>
+      </c>
+      <c r="E43">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>14.33</v>
+      </c>
+      <c r="H43">
+        <v>11.01</v>
+      </c>
+      <c r="I43">
+        <v>28.31</v>
+      </c>
+      <c r="J43">
+        <v>11.49993027815924</v>
+      </c>
+      <c r="K43">
+        <v>29.69398043002482</v>
+      </c>
+      <c r="L43">
+        <v>0.3842016</v>
+      </c>
+      <c r="M43">
+        <v>0.013</v>
+      </c>
+      <c r="N43">
+        <v>36.11</v>
+      </c>
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3042</v>
+      </c>
+      <c r="C44" s="2">
+        <v>41035.74930555555</v>
+      </c>
+      <c r="D44">
+        <v>10.64</v>
+      </c>
+      <c r="E44">
+        <v>38.77</v>
+      </c>
+      <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>14.17</v>
+      </c>
+      <c r="H44">
+        <v>10.64</v>
+      </c>
+      <c r="I44">
+        <v>14.98</v>
+      </c>
+      <c r="J44">
+        <v>10.93501647950961</v>
+      </c>
+      <c r="K44">
+        <v>29.5684249825709</v>
+      </c>
+      <c r="L44">
+        <v>0.3842016</v>
+      </c>
+      <c r="M44">
+        <v>0.008</v>
+      </c>
+      <c r="N44">
+        <v>42.11</v>
+      </c>
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3043</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41035.79097222222</v>
+      </c>
+      <c r="D45">
+        <v>10.19</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>10.19</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10.19</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3044</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41035.83263888889</v>
+      </c>
+      <c r="D46">
+        <v>9.74</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>9.74</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>9.74</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3045</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41035.87430555555</v>
+      </c>
+      <c r="D47">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3046</v>
+      </c>
+      <c r="C48" s="2">
+        <v>41035.91597222222</v>
+      </c>
+      <c r="D48">
+        <v>9.09</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>9.09</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>9.09</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3047</v>
+      </c>
+      <c r="C49" s="2">
+        <v>41035.95763888889</v>
+      </c>
+      <c r="D49">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3048</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41035.99930555555</v>
+      </c>
+      <c r="D50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3049</v>
+      </c>
+      <c r="C51" s="2">
+        <v>41036.04097222222</v>
+      </c>
+      <c r="D51">
+        <v>8.4</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>8.4</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>8.4</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3050</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41036.08263888889</v>
+      </c>
+      <c r="D52">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3051</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41036.12430555555</v>
+      </c>
+      <c r="D53">
+        <v>7.81</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>7.81</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7.81</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3052</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41036.16597222222</v>
+      </c>
+      <c r="D54">
+        <v>7.97</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>7.97</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.97</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3053</v>
+      </c>
+      <c r="C55" s="2">
+        <v>41036.20763888889</v>
+      </c>
+      <c r="D55">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E55">
+        <v>18.15</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="I55">
+        <v>7.11</v>
+      </c>
+      <c r="J55">
+        <v>8.318790819978744</v>
+      </c>
+      <c r="K55">
+        <v>29.00078175408775</v>
+      </c>
+      <c r="L55">
+        <v>0.3842016</v>
+      </c>
+      <c r="M55">
+        <v>0.005</v>
+      </c>
+      <c r="N55">
+        <v>55.56</v>
+      </c>
+      <c r="O55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3054</v>
+      </c>
+      <c r="C56" s="2">
+        <v>41036.24930555555</v>
+      </c>
+      <c r="D56">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E56">
+        <v>80.52</v>
+      </c>
+      <c r="F56">
+        <v>38</v>
+      </c>
+      <c r="G56">
+        <v>14.71</v>
+      </c>
+      <c r="H56">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I56">
+        <v>29.74</v>
+      </c>
+      <c r="J56">
+        <v>8.809250888763756</v>
+      </c>
+      <c r="K56">
+        <v>29.1107653617759</v>
+      </c>
+      <c r="L56">
+        <v>0.3842016</v>
+      </c>
+      <c r="M56">
+        <v>0.014</v>
+      </c>
+      <c r="N56">
+        <v>36.84</v>
+      </c>
+      <c r="O56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3055</v>
+      </c>
+      <c r="C57" s="2">
+        <v>41036.29097222222</v>
+      </c>
+      <c r="D57">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E57">
+        <v>133.06</v>
+      </c>
+      <c r="F57">
+        <v>63</v>
+      </c>
+      <c r="G57">
+        <v>14.67</v>
+      </c>
+      <c r="H57">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I57">
+        <v>49.32</v>
+      </c>
+      <c r="J57">
+        <v>9.995690622423638</v>
+      </c>
+      <c r="K57">
+        <v>29.37099643033551</v>
+      </c>
+      <c r="L57">
+        <v>0.3842016</v>
+      </c>
+      <c r="M57">
+        <v>0.021</v>
+      </c>
+      <c r="N57">
+        <v>33.33</v>
+      </c>
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3056</v>
+      </c>
+      <c r="C58" s="2">
+        <v>41036.33263888889</v>
+      </c>
+      <c r="D58">
+        <v>10.11</v>
+      </c>
+      <c r="E58">
+        <v>189.38</v>
+      </c>
+      <c r="F58">
+        <v>89</v>
+      </c>
+      <c r="G58">
+        <v>14.78</v>
+      </c>
+      <c r="H58">
+        <v>10.11</v>
+      </c>
+      <c r="I58">
+        <v>69.56</v>
+      </c>
+      <c r="J58">
+        <v>11.20177017379854</v>
+      </c>
+      <c r="K58">
+        <v>29.63680130604056</v>
+      </c>
+      <c r="L58">
+        <v>0.3842016</v>
+      </c>
+      <c r="M58">
+        <v>0.029</v>
+      </c>
+      <c r="N58">
+        <v>32.58</v>
+      </c>
+      <c r="O58" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3057</v>
+      </c>
+      <c r="C59" s="2">
+        <v>41036.37430555555</v>
+      </c>
+      <c r="D59">
+        <v>11.01</v>
+      </c>
+      <c r="E59">
+        <v>236.37</v>
+      </c>
+      <c r="F59">
+        <v>111</v>
+      </c>
+      <c r="G59">
+        <v>14.79</v>
+      </c>
+      <c r="H59">
+        <v>11.01</v>
+      </c>
+      <c r="I59">
+        <v>86.72</v>
+      </c>
+      <c r="J59">
+        <v>12.35296212053538</v>
+      </c>
+      <c r="K59">
+        <v>29.89124442878138</v>
+      </c>
+      <c r="L59">
+        <v>0.3842016</v>
+      </c>
+      <c r="M59">
+        <v>0.036</v>
+      </c>
+      <c r="N59">
+        <v>32.43</v>
+      </c>
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3058</v>
+      </c>
+      <c r="C60" s="2">
+        <v>41036.41597222222</v>
+      </c>
+      <c r="D60">
+        <v>11.88</v>
+      </c>
+      <c r="E60">
+        <v>425.21</v>
+      </c>
+      <c r="F60">
+        <v>199</v>
+      </c>
+      <c r="G60">
+        <v>14.84</v>
+      </c>
+      <c r="H60">
+        <v>11.88</v>
+      </c>
+      <c r="I60">
+        <v>155.21</v>
+      </c>
+      <c r="J60">
+        <v>14.22458979589879</v>
+      </c>
+      <c r="K60">
+        <v>30.3147077708053</v>
+      </c>
+      <c r="L60">
+        <v>0.3842016</v>
+      </c>
+      <c r="M60">
+        <v>0.063</v>
+      </c>
+      <c r="N60">
+        <v>31.66</v>
+      </c>
+      <c r="O60" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3059</v>
+      </c>
+      <c r="C61" s="2">
+        <v>41036.45763888889</v>
+      </c>
+      <c r="D61">
+        <v>12.76</v>
+      </c>
+      <c r="E61">
+        <v>762.88</v>
+      </c>
+      <c r="F61">
+        <v>361</v>
+      </c>
+      <c r="G61">
+        <v>14.68</v>
+      </c>
+      <c r="H61">
+        <v>12.76</v>
+      </c>
+      <c r="I61">
+        <v>281.6</v>
+      </c>
+      <c r="J61">
+        <v>16.95507239142052</v>
+      </c>
+      <c r="K61">
+        <v>30.94172340125546</v>
+      </c>
+      <c r="L61">
+        <v>0.3842016</v>
+      </c>
+      <c r="M61">
+        <v>0.112</v>
+      </c>
+      <c r="N61">
+        <v>31.02</v>
+      </c>
+      <c r="O61" t="s">
+        <v>16</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3060</v>
+      </c>
+      <c r="C62" s="2">
+        <v>41036.49930555555</v>
+      </c>
+      <c r="D62">
+        <v>13.64</v>
+      </c>
+      <c r="E62">
+        <v>900</v>
+      </c>
+      <c r="F62">
+        <v>431</v>
+      </c>
+      <c r="G62">
+        <v>14.5</v>
+      </c>
+      <c r="H62">
+        <v>13.64</v>
+      </c>
+      <c r="I62">
+        <v>336.55</v>
+      </c>
+      <c r="J62">
+        <v>18.64253452210357</v>
+      </c>
+      <c r="K62">
+        <v>31.32757898239333</v>
+      </c>
+      <c r="L62">
+        <v>0.3842016</v>
+      </c>
+      <c r="M62">
+        <v>0.134</v>
+      </c>
+      <c r="N62">
+        <v>31.09</v>
+      </c>
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3061</v>
+      </c>
+      <c r="C63" s="2">
+        <v>41036.54097222222</v>
+      </c>
+      <c r="D63">
+        <v>13.82</v>
+      </c>
+      <c r="E63">
+        <v>1081.75</v>
+      </c>
+      <c r="F63">
+        <v>523</v>
+      </c>
+      <c r="G63">
+        <v>14.36</v>
+      </c>
+      <c r="H63">
+        <v>13.82</v>
+      </c>
+      <c r="I63">
+        <v>408.66</v>
+      </c>
+      <c r="J63">
+        <v>19.88055134314203</v>
+      </c>
+      <c r="K63">
+        <v>31.61743040330621</v>
+      </c>
+      <c r="L63">
+        <v>0.3842016</v>
+      </c>
+      <c r="M63">
+        <v>0.163</v>
+      </c>
+      <c r="N63">
+        <v>31.17</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3062</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41036.58263888889</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>1101.12</v>
+      </c>
+      <c r="F64">
+        <v>533</v>
+      </c>
+      <c r="G64">
+        <v>14.35</v>
+      </c>
+      <c r="H64">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <v>416.52</v>
+      </c>
+      <c r="J64">
+        <v>20.17594367842293</v>
+      </c>
+      <c r="K64">
+        <v>31.6852434729003</v>
+      </c>
+      <c r="L64">
+        <v>0.3842016</v>
+      </c>
+      <c r="M64">
+        <v>0.166</v>
+      </c>
+      <c r="N64">
+        <v>31.14</v>
+      </c>
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3063</v>
+      </c>
+      <c r="C65" s="2">
+        <v>41036.62430555555</v>
+      </c>
+      <c r="D65">
+        <v>14.18</v>
+      </c>
+      <c r="E65">
+        <v>707.47</v>
+      </c>
+      <c r="F65">
+        <v>338</v>
+      </c>
+      <c r="G65">
+        <v>14.54</v>
+      </c>
+      <c r="H65">
+        <v>14.18</v>
+      </c>
+      <c r="I65">
+        <v>264.08</v>
+      </c>
+      <c r="J65">
+        <v>18.12095157376558</v>
+      </c>
+      <c r="K65">
+        <v>31.19852128090476</v>
+      </c>
+      <c r="L65">
+        <v>0.3842016</v>
+      </c>
+      <c r="M65">
+        <v>0.106</v>
+      </c>
+      <c r="N65">
+        <v>31.36</v>
+      </c>
+      <c r="O65" t="s">
+        <v>16</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3064</v>
+      </c>
+      <c r="C66" s="2">
+        <v>41036.66597222222</v>
+      </c>
+      <c r="D66">
+        <v>13.91</v>
+      </c>
+      <c r="E66">
+        <v>432.31</v>
+      </c>
+      <c r="F66">
+        <v>205</v>
+      </c>
+      <c r="G66">
+        <v>14.64</v>
+      </c>
+      <c r="H66">
+        <v>13.91</v>
+      </c>
+      <c r="I66">
+        <v>160.23</v>
+      </c>
+      <c r="J66">
+        <v>16.32975073642922</v>
+      </c>
+      <c r="K66">
+        <v>30.78114400035161</v>
+      </c>
+      <c r="L66">
+        <v>0.3842016</v>
+      </c>
+      <c r="M66">
+        <v>0.065</v>
+      </c>
+      <c r="N66">
+        <v>31.71</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3065</v>
+      </c>
+      <c r="C67" s="2">
+        <v>41036.70763888889</v>
+      </c>
+      <c r="D67">
+        <v>13.65</v>
+      </c>
+      <c r="E67">
+        <v>189.98</v>
+      </c>
+      <c r="F67">
+        <v>91</v>
+      </c>
+      <c r="G67">
+        <v>14.5</v>
+      </c>
+      <c r="H67">
+        <v>13.65</v>
+      </c>
+      <c r="I67">
+        <v>71.36</v>
+      </c>
+      <c r="J67">
+        <v>14.77024409429833</v>
+      </c>
+      <c r="K67">
+        <v>30.41945561023343</v>
+      </c>
+      <c r="L67">
+        <v>0.3842016</v>
+      </c>
+      <c r="M67">
+        <v>0.03</v>
+      </c>
+      <c r="N67">
+        <v>32.97</v>
+      </c>
+      <c r="O67" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3066</v>
+      </c>
+      <c r="C68" s="2">
+        <v>41036.74930555555</v>
+      </c>
+      <c r="D68">
+        <v>13.39</v>
+      </c>
+      <c r="E68">
+        <v>65.95</v>
+      </c>
+      <c r="F68">
+        <v>32</v>
+      </c>
+      <c r="G68">
+        <v>14.31</v>
+      </c>
+      <c r="H68">
+        <v>13.39</v>
+      </c>
+      <c r="I68">
+        <v>25.17</v>
+      </c>
+      <c r="J68">
+        <v>13.8354377276284</v>
+      </c>
+      <c r="K68">
+        <v>30.20470900204429</v>
+      </c>
+      <c r="L68">
+        <v>0.3842016</v>
+      </c>
+      <c r="M68">
+        <v>0.012</v>
+      </c>
+      <c r="N68">
+        <v>37.5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>16</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3067</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41036.79097222222</v>
+      </c>
+      <c r="D69">
+        <v>11.94</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>11.94</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>11.94</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3068</v>
+      </c>
+      <c r="C70" s="2">
+        <v>41036.83263888889</v>
+      </c>
+      <c r="D70">
+        <v>10.5</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>10.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>10.5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3069</v>
+      </c>
+      <c r="C71" s="2">
+        <v>41036.87430555555</v>
+      </c>
+      <c r="D71">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3070</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41036.91597222222</v>
+      </c>
+      <c r="D72">
+        <v>8.84</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>8.84</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>8.84</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3071</v>
+      </c>
+      <c r="C73" s="2">
+        <v>41036.95763888889</v>
+      </c>
+      <c r="D73">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>16</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>3072</v>
+      </c>
+      <c r="C74" s="2">
+        <v>41036.99930555555</v>
+      </c>
+      <c r="D74">
+        <v>8.4</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>8.4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>8.4</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>3073</v>
+      </c>
+      <c r="C75" s="2">
+        <v>41037.04097222222</v>
+      </c>
+      <c r="D75">
+        <v>8.67</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>8.67</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>8.67</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>3074</v>
+      </c>
+      <c r="C76" s="2">
+        <v>41037.08263888889</v>
+      </c>
+      <c r="D76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>3075</v>
+      </c>
+      <c r="C77" s="2">
+        <v>41037.12430555555</v>
+      </c>
+      <c r="D77">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>3076</v>
+      </c>
+      <c r="C78" s="2">
+        <v>41037.16597222222</v>
+      </c>
+      <c r="D78">
+        <v>10.22</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>10.22</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>10.22</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>3077</v>
+      </c>
+      <c r="C79" s="2">
+        <v>41037.20763888889</v>
+      </c>
+      <c r="D79">
+        <v>11.22</v>
+      </c>
+      <c r="E79">
+        <v>95.01000000000001</v>
+      </c>
+      <c r="F79">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>14.34</v>
+      </c>
+      <c r="H79">
+        <v>11.22</v>
+      </c>
+      <c r="I79">
+        <v>36.17</v>
+      </c>
+      <c r="J79">
+        <v>11.82473643681908</v>
+      </c>
+      <c r="K79">
+        <v>29.76632814549679</v>
+      </c>
+      <c r="L79">
+        <v>0.3842016</v>
+      </c>
+      <c r="M79">
+        <v>0.016</v>
+      </c>
+      <c r="N79">
+        <v>34.78</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>3078</v>
+      </c>
+      <c r="C80" s="2">
+        <v>41037.24930555555</v>
+      </c>
+      <c r="D80">
+        <v>12.22</v>
+      </c>
+      <c r="E80">
+        <v>229.83</v>
+      </c>
+      <c r="F80">
+        <v>108</v>
+      </c>
+      <c r="G80">
+        <v>14.78</v>
+      </c>
+      <c r="H80">
+        <v>12.22</v>
+      </c>
+      <c r="I80">
+        <v>84.42</v>
+      </c>
+      <c r="J80">
+        <v>13.52958299662652</v>
+      </c>
+      <c r="K80">
+        <v>30.14885772269138</v>
+      </c>
+      <c r="L80">
+        <v>0.3842016</v>
+      </c>
+      <c r="M80">
+        <v>0.035</v>
+      </c>
+      <c r="N80">
+        <v>32.41</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3079</v>
+      </c>
+      <c r="C81" s="2">
+        <v>41037.29097222222</v>
+      </c>
+      <c r="D81">
+        <v>14.04</v>
+      </c>
+      <c r="E81">
+        <v>509.83</v>
+      </c>
+      <c r="F81">
+        <v>238</v>
+      </c>
+      <c r="G81">
+        <v>14.88</v>
+      </c>
+      <c r="H81">
+        <v>14.04</v>
+      </c>
+      <c r="I81">
+        <v>185.7</v>
+      </c>
+      <c r="J81">
+        <v>16.82813481029115</v>
+      </c>
+      <c r="K81">
+        <v>30.89751213893036</v>
+      </c>
+      <c r="L81">
+        <v>0.3842016</v>
+      </c>
+      <c r="M81">
+        <v>0.075</v>
+      </c>
+      <c r="N81">
+        <v>31.51</v>
+      </c>
+      <c r="O81" t="s">
+        <v>16</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3080</v>
+      </c>
+      <c r="C82" s="2">
+        <v>41037.33263888889</v>
+      </c>
+      <c r="D82">
+        <v>15.87</v>
+      </c>
+      <c r="E82">
+        <v>889.9400000000001</v>
+      </c>
+      <c r="F82">
+        <v>415</v>
+      </c>
+      <c r="G82">
+        <v>14.89</v>
+      </c>
+      <c r="H82">
+        <v>15.87</v>
+      </c>
+      <c r="I82">
+        <v>323.52</v>
+      </c>
+      <c r="J82">
+        <v>20.66785602344589</v>
+      </c>
+      <c r="K82">
+        <v>31.78443547698703</v>
+      </c>
+      <c r="L82">
+        <v>0.3842016</v>
+      </c>
+      <c r="M82">
+        <v>0.129</v>
+      </c>
+      <c r="N82">
+        <v>31.08</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>3081</v>
+      </c>
+      <c r="C83" s="2">
+        <v>41037.37430555555</v>
+      </c>
+      <c r="D83">
+        <v>17.69</v>
+      </c>
+      <c r="E83">
+        <v>1187.35</v>
+      </c>
+      <c r="F83">
+        <v>558</v>
+      </c>
+      <c r="G83">
+        <v>14.78</v>
+      </c>
+      <c r="H83">
+        <v>17.69</v>
+      </c>
+      <c r="I83">
+        <v>435.44</v>
+      </c>
+      <c r="J83">
+        <v>24.11733399667412</v>
+      </c>
+      <c r="K83">
+        <v>32.35073501450432</v>
+      </c>
+      <c r="L83">
+        <v>0.3842016</v>
+      </c>
+      <c r="M83">
+        <v>0.172</v>
+      </c>
+      <c r="N83">
+        <v>30.82</v>
+      </c>
+      <c r="O83" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>3082</v>
+      </c>
+      <c r="C84" s="2">
+        <v>41037.41597222222</v>
+      </c>
+      <c r="D84">
+        <v>18.05</v>
+      </c>
+      <c r="E84">
+        <v>1047.22</v>
+      </c>
+      <c r="F84">
+        <v>493</v>
+      </c>
+      <c r="G84">
+        <v>14.75</v>
+      </c>
+      <c r="H84">
+        <v>18.05</v>
+      </c>
+      <c r="I84">
+        <v>384.89</v>
+      </c>
+      <c r="J84">
+        <v>23.74298047237266</v>
+      </c>
+      <c r="K84">
+        <v>32.49450176326546</v>
+      </c>
+      <c r="L84">
+        <v>0.3842016</v>
+      </c>
+      <c r="M84">
+        <v>0.153</v>
+      </c>
+      <c r="N84">
+        <v>31.03</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>3083</v>
+      </c>
+      <c r="C85" s="2">
+        <v>41037.45763888889</v>
+      </c>
+      <c r="D85">
+        <v>18.41</v>
+      </c>
+      <c r="E85">
+        <v>1600.51</v>
+      </c>
+      <c r="F85">
+        <v>762</v>
+      </c>
+      <c r="G85">
+        <v>14.59</v>
+      </c>
+      <c r="H85">
+        <v>18.41</v>
+      </c>
+      <c r="I85">
+        <v>595.4</v>
+      </c>
+      <c r="J85">
+        <v>27.16756660179527</v>
+      </c>
+      <c r="K85">
+        <v>33.07789747137728</v>
+      </c>
+      <c r="L85">
+        <v>0.3842016</v>
+      </c>
+      <c r="M85">
+        <v>0.235</v>
+      </c>
+      <c r="N85">
+        <v>30.84</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3084</v>
+      </c>
+      <c r="C86" s="2">
+        <v>41037.49930555555</v>
+      </c>
+      <c r="D86">
+        <v>18.77</v>
+      </c>
+      <c r="E86">
+        <v>1421.07</v>
+      </c>
+      <c r="F86">
+        <v>676</v>
+      </c>
+      <c r="G86">
+        <v>14.6</v>
+      </c>
+      <c r="H86">
+        <v>18.77</v>
+      </c>
+      <c r="I86">
+        <v>528.22</v>
+      </c>
+      <c r="J86">
+        <v>26.55160118255907</v>
+      </c>
+      <c r="K86">
+        <v>32.92362346428898</v>
+      </c>
+      <c r="L86">
+        <v>0.3842016</v>
+      </c>
+      <c r="M86">
+        <v>0.209</v>
+      </c>
+      <c r="N86">
+        <v>30.92</v>
+      </c>
+      <c r="O86" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>3085</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41037.54097222222</v>
+      </c>
+      <c r="D87">
+        <v>18.77</v>
+      </c>
+      <c r="E87">
+        <v>1169.68</v>
+      </c>
+      <c r="F87">
+        <v>554</v>
+      </c>
+      <c r="G87">
+        <v>14.66</v>
+      </c>
+      <c r="H87">
+        <v>18.77</v>
+      </c>
+      <c r="I87">
+        <v>432.81</v>
+      </c>
+      <c r="J87">
+        <v>25.16175655361576</v>
+      </c>
+      <c r="K87">
+        <v>32.58776410794016</v>
+      </c>
+      <c r="L87">
+        <v>0.3842016</v>
+      </c>
+      <c r="M87">
+        <v>0.171</v>
+      </c>
+      <c r="N87">
+        <v>30.87</v>
+      </c>
+      <c r="O87" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>3086</v>
+      </c>
+      <c r="C88" s="2">
+        <v>41037.58263888889</v>
+      </c>
+      <c r="D88">
+        <v>18.77</v>
+      </c>
+      <c r="E88">
+        <v>631.66</v>
+      </c>
+      <c r="F88">
+        <v>299</v>
+      </c>
+      <c r="G88">
+        <v>14.67</v>
+      </c>
+      <c r="H88">
+        <v>18.77</v>
+      </c>
+      <c r="I88">
+        <v>233.85</v>
+      </c>
+      <c r="J88">
+        <v>22.26275273465188</v>
+      </c>
+      <c r="K88">
+        <v>32.12856224733139</v>
+      </c>
+      <c r="L88">
+        <v>0.3842016</v>
+      </c>
+      <c r="M88">
+        <v>0.094</v>
+      </c>
+      <c r="N88">
+        <v>31.44</v>
+      </c>
+      <c r="O88" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3087</v>
+      </c>
+      <c r="C89" s="2">
+        <v>41037.62430555555</v>
+      </c>
+      <c r="D89">
+        <v>18.78</v>
+      </c>
+      <c r="E89">
+        <v>271.46</v>
+      </c>
+      <c r="F89">
+        <v>131</v>
+      </c>
+      <c r="G89">
+        <v>14.39</v>
+      </c>
+      <c r="H89">
+        <v>18.78</v>
+      </c>
+      <c r="I89">
+        <v>102.91</v>
+      </c>
+      <c r="J89">
+        <v>20.36283534475126</v>
+      </c>
+      <c r="K89">
+        <v>31.67334623865806</v>
+      </c>
+      <c r="L89">
+        <v>0.3842016</v>
+      </c>
+      <c r="M89">
+        <v>0.042</v>
+      </c>
+      <c r="N89">
+        <v>32.06</v>
+      </c>
+      <c r="O89" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>3088</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41037.66597222222</v>
+      </c>
+      <c r="D90">
+        <v>17.68</v>
+      </c>
+      <c r="E90">
+        <v>311.16</v>
+      </c>
+      <c r="F90">
+        <v>149</v>
+      </c>
+      <c r="G90">
+        <v>14.5</v>
+      </c>
+      <c r="H90">
+        <v>17.68</v>
+      </c>
+      <c r="I90">
+        <v>116.87</v>
+      </c>
+      <c r="J90">
+        <v>19.46594043293004</v>
+      </c>
+      <c r="K90">
+        <v>31.47418033232132</v>
+      </c>
+      <c r="L90">
+        <v>0.3842016</v>
+      </c>
+      <c r="M90">
+        <v>0.048</v>
+      </c>
+      <c r="N90">
+        <v>32.21</v>
+      </c>
+      <c r="O90" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>3089</v>
+      </c>
+      <c r="C91" s="2">
+        <v>41037.70763888889</v>
+      </c>
+      <c r="D91">
+        <v>16.58</v>
+      </c>
+      <c r="E91">
+        <v>181.66</v>
+      </c>
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <v>14.34</v>
+      </c>
+      <c r="H91">
+        <v>16.58</v>
+      </c>
+      <c r="I91">
+        <v>69.19</v>
+      </c>
+      <c r="J91">
+        <v>17.66963240521216</v>
+      </c>
+      <c r="K91">
+        <v>31.06267858351634</v>
+      </c>
+      <c r="L91">
+        <v>0.3842016</v>
+      </c>
+      <c r="M91">
+        <v>0.029</v>
+      </c>
+      <c r="N91">
+        <v>32.95</v>
+      </c>
+      <c r="O91" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>3090</v>
+      </c>
+      <c r="C92" s="2">
+        <v>41037.74930555555</v>
+      </c>
+      <c r="D92">
+        <v>15.48</v>
+      </c>
+      <c r="E92">
+        <v>10.89</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>15.12</v>
+      </c>
+      <c r="H92">
+        <v>15.48</v>
+      </c>
+      <c r="I92">
+        <v>3.89</v>
+      </c>
+      <c r="J92">
+        <v>15.61598107877211</v>
+      </c>
+      <c r="K92">
+        <v>30.59346849784211</v>
+      </c>
+      <c r="L92">
+        <v>0.3842016</v>
+      </c>
+      <c r="M92">
+        <v>0.004</v>
+      </c>
+      <c r="N92">
+        <v>80</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>3091</v>
+      </c>
+      <c r="C93" s="2">
+        <v>41037.79097222222</v>
+      </c>
+      <c r="D93">
+        <v>15.04</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>15.04</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>15.04</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>3092</v>
+      </c>
+      <c r="C94" s="2">
+        <v>41037.83263888889</v>
+      </c>
+      <c r="D94">
+        <v>14.61</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>14.61</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>14.61</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>3093</v>
+      </c>
+      <c r="C95" s="2">
+        <v>41037.87430555555</v>
+      </c>
+      <c r="D95">
+        <v>14.17</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>14.17</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>14.17</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3094</v>
+      </c>
+      <c r="C96" s="2">
+        <v>41037.91597222222</v>
+      </c>
+      <c r="D96">
+        <v>14.03</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>14.03</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>14.03</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>3095</v>
+      </c>
+      <c r="C97" s="2">
+        <v>41037.95763888889</v>
+      </c>
+      <c r="D97">
+        <v>13.89</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>13.89</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>13.89</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>16</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>3096</v>
+      </c>
+      <c r="C98" s="2">
+        <v>41037.99930555555</v>
+      </c>
+      <c r="D98">
+        <v>13.75</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>13.75</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>13.75</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>16</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>3097</v>
+      </c>
+      <c r="C99" s="2">
+        <v>41038.04097222222</v>
+      </c>
+      <c r="D99">
+        <v>13.8</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>13.8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>13.8</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>16</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>3098</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41038.08263888889</v>
+      </c>
+      <c r="D100">
+        <v>13.86</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>13.86</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>13.86</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3099</v>
+      </c>
+      <c r="C101" s="2">
+        <v>41038.12430555555</v>
+      </c>
+      <c r="D101">
+        <v>13.91</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>13.91</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>13.91</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>3100</v>
+      </c>
+      <c r="C102" s="2">
+        <v>41038.16597222222</v>
+      </c>
+      <c r="D102">
+        <v>14.23</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>14.23</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>14.23</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>3101</v>
+      </c>
+      <c r="C103" s="2">
+        <v>41038.20763888889</v>
+      </c>
+      <c r="D103">
+        <v>14.56</v>
+      </c>
+      <c r="E103">
+        <v>29.44</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+      <c r="G103">
+        <v>13.63</v>
+      </c>
+      <c r="H103">
+        <v>14.56</v>
+      </c>
+      <c r="I103">
+        <v>11.9</v>
+      </c>
+      <c r="J103">
+        <v>14.81239002466231</v>
+      </c>
+      <c r="K103">
+        <v>30.4173902665208</v>
+      </c>
+      <c r="L103">
+        <v>0.3842016</v>
+      </c>
+      <c r="M103">
+        <v>0.007</v>
+      </c>
+      <c r="N103">
+        <v>46.67</v>
+      </c>
+      <c r="O103" t="s">
+        <v>16</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>3102</v>
+      </c>
+      <c r="C104" s="2">
+        <v>41038.24930555555</v>
+      </c>
+      <c r="D104">
+        <v>14.88</v>
+      </c>
+      <c r="E104">
+        <v>157.27</v>
+      </c>
+      <c r="F104">
+        <v>76</v>
+      </c>
+      <c r="G104">
+        <v>14.37</v>
+      </c>
+      <c r="H104">
+        <v>14.88</v>
+      </c>
+      <c r="I104">
+        <v>59.73</v>
+      </c>
+      <c r="J104">
+        <v>15.83065170036764</v>
+      </c>
+      <c r="K104">
+        <v>30.65188657186243</v>
+      </c>
+      <c r="L104">
+        <v>0.3842016</v>
+      </c>
+      <c r="M104">
+        <v>0.025</v>
+      </c>
+      <c r="N104">
+        <v>32.89</v>
+      </c>
+      <c r="O104" t="s">
+        <v>16</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>3103</v>
+      </c>
+      <c r="C105" s="2">
+        <v>41038.29097222222</v>
+      </c>
+      <c r="D105">
+        <v>15.25</v>
+      </c>
+      <c r="E105">
+        <v>310.97</v>
+      </c>
+      <c r="F105">
+        <v>147</v>
+      </c>
+      <c r="G105">
+        <v>14.69</v>
+      </c>
+      <c r="H105">
+        <v>15.25</v>
+      </c>
+      <c r="I105">
+        <v>115.02</v>
+      </c>
+      <c r="J105">
+        <v>17.00768630023617</v>
+      </c>
+      <c r="K105">
+        <v>30.92398538750367</v>
+      </c>
+      <c r="L105">
+        <v>0.3842016</v>
+      </c>
+      <c r="M105">
+        <v>0.047</v>
+      </c>
+      <c r="N105">
+        <v>31.97</v>
+      </c>
+      <c r="O105" t="s">
+        <v>16</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>3104</v>
+      </c>
+      <c r="C106" s="2">
+        <v>41038.33263888889</v>
+      </c>
+      <c r="D106">
+        <v>15.61</v>
+      </c>
+      <c r="E106">
+        <v>540.47</v>
+      </c>
+      <c r="F106">
+        <v>253</v>
+      </c>
+      <c r="G106">
+        <v>14.84</v>
+      </c>
+      <c r="H106">
+        <v>15.61</v>
+      </c>
+      <c r="I106">
+        <v>197.49</v>
+      </c>
+      <c r="J106">
+        <v>18.57099098479551</v>
+      </c>
+      <c r="K106">
+        <v>31.28886099168335</v>
+      </c>
+      <c r="L106">
+        <v>0.3842016</v>
+      </c>
+      <c r="M106">
+        <v>0.079</v>
+      </c>
+      <c r="N106">
+        <v>31.23</v>
+      </c>
+      <c r="O106" t="s">
+        <v>16</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3105</v>
+      </c>
+      <c r="C107" s="2">
+        <v>41038.37430555555</v>
+      </c>
+      <c r="D107">
+        <v>15.98</v>
+      </c>
+      <c r="E107">
+        <v>373.47</v>
+      </c>
+      <c r="F107">
+        <v>176</v>
+      </c>
+      <c r="G107">
+        <v>14.74</v>
+      </c>
+      <c r="H107">
+        <v>15.98</v>
+      </c>
+      <c r="I107">
+        <v>137.62</v>
+      </c>
+      <c r="J107">
+        <v>18.06770058712931</v>
+      </c>
+      <c r="K107">
+        <v>31.16482516859746</v>
+      </c>
+      <c r="L107">
+        <v>0.3842016</v>
+      </c>
+      <c r="M107">
+        <v>0.056</v>
+      </c>
+      <c r="N107">
+        <v>31.82</v>
+      </c>
+      <c r="O107" t="s">
+        <v>16</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>3106</v>
+      </c>
+      <c r="C108" s="2">
+        <v>41038.41597222222</v>
+      </c>
+      <c r="D108">
+        <v>16.39</v>
+      </c>
+      <c r="E108">
+        <v>598.6</v>
+      </c>
+      <c r="F108">
+        <v>281</v>
+      </c>
+      <c r="G108">
+        <v>14.79</v>
+      </c>
+      <c r="H108">
+        <v>16.39</v>
+      </c>
+      <c r="I108">
+        <v>219.44</v>
+      </c>
+      <c r="J108">
+        <v>19.67144773485001</v>
+      </c>
+      <c r="K108">
+        <v>31.54007676928306</v>
+      </c>
+      <c r="L108">
+        <v>0.3842016</v>
+      </c>
+      <c r="M108">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="N108">
+        <v>31.32</v>
+      </c>
+      <c r="O108" t="s">
+        <v>16</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3107</v>
+      </c>
+      <c r="C109" s="2">
+        <v>41038.45763888889</v>
+      </c>
+      <c r="D109">
+        <v>16.8</v>
+      </c>
+      <c r="E109">
+        <v>522.6799999999999</v>
+      </c>
+      <c r="F109">
+        <v>246</v>
+      </c>
+      <c r="G109">
+        <v>14.75</v>
+      </c>
+      <c r="H109">
+        <v>16.8</v>
+      </c>
+      <c r="I109">
+        <v>192.24</v>
+      </c>
+      <c r="J109">
+        <v>19.68490143574439</v>
+      </c>
+      <c r="K109">
+        <v>31.53792247312084</v>
+      </c>
+      <c r="L109">
+        <v>0.3842016</v>
+      </c>
+      <c r="M109">
+        <v>0.077</v>
+      </c>
+      <c r="N109">
+        <v>31.3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>16</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>3108</v>
+      </c>
+      <c r="C110" s="2">
+        <v>41038.49930555555</v>
+      </c>
+      <c r="D110">
+        <v>17.21</v>
+      </c>
+      <c r="E110">
+        <v>240.56</v>
+      </c>
+      <c r="F110">
+        <v>116</v>
+      </c>
+      <c r="G110">
+        <v>14.4</v>
+      </c>
+      <c r="H110">
+        <v>17.21</v>
+      </c>
+      <c r="I110">
+        <v>91.12</v>
+      </c>
+      <c r="J110">
+        <v>18.61994061754723</v>
+      </c>
+      <c r="K110">
+        <v>31.27940785968075</v>
+      </c>
+      <c r="L110">
+        <v>0.3842016</v>
+      </c>
+      <c r="M110">
+        <v>0.038</v>
+      </c>
+      <c r="N110">
+        <v>32.76</v>
+      </c>
+      <c r="O110" t="s">
+        <v>16</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>3109</v>
+      </c>
+      <c r="C111" s="2">
+        <v>41038.54097222222</v>
+      </c>
+      <c r="D111">
+        <v>17.35</v>
+      </c>
+      <c r="E111">
+        <v>638.53</v>
+      </c>
+      <c r="F111">
+        <v>301</v>
+      </c>
+      <c r="G111">
+        <v>14.73</v>
+      </c>
+      <c r="H111">
+        <v>17.35</v>
+      </c>
+      <c r="I111">
+        <v>235.23</v>
+      </c>
+      <c r="J111">
+        <v>20.86209260796198</v>
+      </c>
+      <c r="K111">
+        <v>31.81150632913194</v>
+      </c>
+      <c r="L111">
+        <v>0.3842016</v>
+      </c>
+      <c r="M111">
+        <v>0.094</v>
+      </c>
+      <c r="N111">
+        <v>31.23</v>
+      </c>
+      <c r="O111" t="s">
+        <v>16</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3110</v>
+      </c>
+      <c r="C112" s="2">
+        <v>41038.58263888889</v>
+      </c>
+      <c r="D112">
+        <v>17.49</v>
+      </c>
+      <c r="E112">
+        <v>373</v>
+      </c>
+      <c r="F112">
+        <v>177</v>
+      </c>
+      <c r="G112">
+        <v>14.63</v>
+      </c>
+      <c r="H112">
+        <v>17.49</v>
+      </c>
+      <c r="I112">
+        <v>138.58</v>
+      </c>
+      <c r="J112">
+        <v>19.59255330627013</v>
+      </c>
+      <c r="K112">
+        <v>31.50685696742467</v>
+      </c>
+      <c r="L112">
+        <v>0.3842016</v>
+      </c>
+      <c r="M112">
+        <v>0.056</v>
+      </c>
+      <c r="N112">
+        <v>31.64</v>
+      </c>
+      <c r="O112" t="s">
+        <v>16</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>3111</v>
+      </c>
+      <c r="C113" s="2">
+        <v>41038.62430555555</v>
+      </c>
+      <c r="D113">
+        <v>17.63</v>
+      </c>
+      <c r="E113">
+        <v>524.33</v>
+      </c>
+      <c r="F113">
+        <v>248</v>
+      </c>
+      <c r="G113">
+        <v>14.68</v>
+      </c>
+      <c r="H113">
+        <v>17.63</v>
+      </c>
+      <c r="I113">
+        <v>193.99</v>
+      </c>
+      <c r="J113">
+        <v>20.5407467926309</v>
+      </c>
+      <c r="K113">
+        <v>31.73111371375045</v>
+      </c>
+      <c r="L113">
+        <v>0.3842016</v>
+      </c>
+      <c r="M113">
+        <v>0.078</v>
+      </c>
+      <c r="N113">
+        <v>31.45</v>
+      </c>
+      <c r="O113" t="s">
+        <v>16</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>3112</v>
+      </c>
+      <c r="C114" s="2">
+        <v>41038.66597222222</v>
+      </c>
+      <c r="D114">
+        <v>17.35</v>
+      </c>
+      <c r="E114">
+        <v>334.83</v>
+      </c>
+      <c r="F114">
+        <v>160</v>
+      </c>
+      <c r="G114">
+        <v>14.53</v>
+      </c>
+      <c r="H114">
+        <v>17.35</v>
+      </c>
+      <c r="I114">
+        <v>125.43</v>
+      </c>
+      <c r="J114">
+        <v>19.26082747164992</v>
+      </c>
+      <c r="K114">
+        <v>31.42975217003733</v>
+      </c>
+      <c r="L114">
+        <v>0.3842016</v>
+      </c>
+      <c r="M114">
+        <v>0.051</v>
+      </c>
+      <c r="N114">
+        <v>31.88</v>
+      </c>
+      <c r="O114" t="s">
+        <v>16</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>3113</v>
+      </c>
+      <c r="C115" s="2">
+        <v>41038.70763888889</v>
+      </c>
+      <c r="D115">
+        <v>17.08</v>
+      </c>
+      <c r="E115">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="F115">
+        <v>44</v>
+      </c>
+      <c r="G115">
+        <v>13.9</v>
+      </c>
+      <c r="H115">
+        <v>17.08</v>
+      </c>
+      <c r="I115">
+        <v>34.8</v>
+      </c>
+      <c r="J115">
+        <v>17.66796391475816</v>
+      </c>
+      <c r="K115">
+        <v>31.05559529006001</v>
+      </c>
+      <c r="L115">
+        <v>0.3842016</v>
+      </c>
+      <c r="M115">
+        <v>0.016</v>
+      </c>
+      <c r="N115">
+        <v>36.36</v>
+      </c>
+      <c r="O115" t="s">
+        <v>16</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3114</v>
+      </c>
+      <c r="C116" s="2">
+        <v>41038.74930555555</v>
+      </c>
+      <c r="D116">
+        <v>16.81</v>
+      </c>
+      <c r="E116">
+        <v>68.72</v>
+      </c>
+      <c r="F116">
+        <v>34</v>
+      </c>
+      <c r="G116">
+        <v>14.04</v>
+      </c>
+      <c r="H116">
+        <v>16.81</v>
+      </c>
+      <c r="I116">
+        <v>26.84</v>
+      </c>
+      <c r="J116">
+        <v>17.28170622020099</v>
+      </c>
+      <c r="K116">
+        <v>30.96791125552856</v>
+      </c>
+      <c r="L116">
+        <v>0.3842016</v>
+      </c>
+      <c r="M116">
+        <v>0.013</v>
+      </c>
+      <c r="N116">
+        <v>38.24</v>
+      </c>
+      <c r="O116" t="s">
+        <v>16</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>3115</v>
+      </c>
+      <c r="C117" s="2">
+        <v>41038.79097222222</v>
+      </c>
+      <c r="D117">
+        <v>16.08</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>16.08</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>16.08</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>16</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>3116</v>
+      </c>
+      <c r="C118" s="2">
+        <v>41038.83263888889</v>
+      </c>
+      <c r="D118">
+        <v>15.35</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>15.35</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>15.35</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>16</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3117</v>
+      </c>
+      <c r="C119" s="2">
+        <v>41038.87430555555</v>
+      </c>
+      <c r="D119">
+        <v>14.61</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>14.61</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>14.61</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>16</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>3118</v>
+      </c>
+      <c r="C120" s="2">
+        <v>41038.91597222222</v>
+      </c>
+      <c r="D120">
+        <v>14.51</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>14.51</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>14.51</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>16</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>3119</v>
+      </c>
+      <c r="C121" s="2">
+        <v>41038.95763888889</v>
+      </c>
+      <c r="D121">
+        <v>14.4</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>14.4</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>14.4</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>16</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>367140</v>
+      </c>
+      <c r="D122">
+        <v>1500.82</v>
+      </c>
+      <c r="E122">
+        <v>25807.93</v>
+      </c>
+      <c r="F122">
+        <v>12240</v>
+      </c>
+      <c r="G122">
+        <v>1019.92</v>
+      </c>
+      <c r="H122">
+        <v>1500.82</v>
+      </c>
+      <c r="I122">
+        <v>9568.209999999999</v>
+      </c>
+      <c r="J122">
+        <v>1645.96455622213</v>
+      </c>
+      <c r="K122">
+        <v>2144.602001786411</v>
+      </c>
+      <c r="L122">
+        <v>26.894112</v>
+      </c>
+      <c r="M122">
+        <v>3.894</v>
+      </c>
+      <c r="N122">
+        <v>2456.77</v>
       </c>
     </row>
   </sheetData>

--- a/Exports/CompleteResultWithoutCoolingEffect.xlsx
+++ b/Exports/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Index</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tamb [°C]</t>
+    <t>Tavg [°C]</t>
   </si>
   <si>
     <t>Power [W]</t>
@@ -31,13 +31,28 @@
     <t>Effective Irradiance [W/m^2]</t>
   </si>
   <si>
-    <t>Elec Efficency</t>
-  </si>
-  <si>
-    <t>HP_COP</t>
-  </si>
-  <si>
-    <t>HP_Thermal[W]</t>
+    <t>Elec. Efficency [%]</t>
+  </si>
+  <si>
+    <t>ideal elec. energy yield [Wh]</t>
+  </si>
+  <si>
+    <t>Performance Ratio STC[-]</t>
+  </si>
+  <si>
+    <t>Performance Ratio eq [-]</t>
+  </si>
+  <si>
+    <t>spez. elec. energy yield [kWh/kWp]</t>
+  </si>
+  <si>
+    <t>Autarky rate [%]</t>
+  </si>
+  <si>
+    <t>HP_COP [-]</t>
+  </si>
+  <si>
+    <t>HP_Thermal[Wh]</t>
   </si>
   <si>
     <t>Tamb</t>
@@ -432,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,19 +508,34 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3000</v>
+        <v>5548</v>
       </c>
       <c r="C2" s="2">
-        <v>41033.99930555555</v>
+        <v>41140.16597222222</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>20.64</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -523,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -538,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20.64</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>18</v>
+      <c r="Q2">
+        <v>20.64</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -552,43 +582,58 @@
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3001</v>
+        <v>5549</v>
       </c>
       <c r="C3" s="2">
-        <v>41034.04097222222</v>
+        <v>41140.20763888889</v>
       </c>
       <c r="D3">
-        <v>10.4</v>
+        <v>21.11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>55.42</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>60.42</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="J3">
-        <v>10.4</v>
+        <v>0.32</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L3">
-        <v>10.4</v>
+        <v>40.13</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -597,57 +642,72 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>21.11</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
+        <v>22.19</v>
+      </c>
+      <c r="Q3">
+        <v>21.51623696497774</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>31.91796050961846</v>
       </c>
       <c r="S3">
+        <v>0.3842016</v>
+      </c>
+      <c r="T3">
+        <v>0.011</v>
+      </c>
+      <c r="U3">
+        <v>39.29</v>
+      </c>
+      <c r="V3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3002</v>
+        <v>5550</v>
       </c>
       <c r="C4" s="2">
-        <v>41034.08263888889</v>
+        <v>41140.24930555555</v>
       </c>
       <c r="D4">
-        <v>10.79</v>
+        <v>21.59</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>171.58</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>14.02</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>178.02</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J4">
-        <v>10.79</v>
+        <v>0.76</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L4">
-        <v>10.79</v>
+        <v>185.51</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -656,57 +716,72 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.59</v>
       </c>
       <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>18</v>
+        <v>67.09999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>22.65200387654789</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>32.18450290506866</v>
       </c>
       <c r="S4">
+        <v>0.3842016</v>
+      </c>
+      <c r="T4">
+        <v>0.028</v>
+      </c>
+      <c r="U4">
+        <v>32.94</v>
+      </c>
+      <c r="V4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3003</v>
+        <v>5551</v>
       </c>
       <c r="C5" s="2">
-        <v>41034.12430555555</v>
+        <v>41140.29097222222</v>
       </c>
       <c r="D5">
-        <v>11.19</v>
+        <v>24.48</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>393.18</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>394.89</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J5">
-        <v>11.19</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L5">
-        <v>11.19</v>
+        <v>319.35</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -715,57 +790,72 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>24.48</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
+        <v>151.09</v>
+      </c>
+      <c r="Q5">
+        <v>26.76852626229243</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>32.90116568827695</v>
       </c>
       <c r="S5">
+        <v>0.3842016</v>
+      </c>
+      <c r="T5">
+        <v>0.061</v>
+      </c>
+      <c r="U5">
+        <v>31.77</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3004</v>
+        <v>5552</v>
       </c>
       <c r="C6" s="2">
-        <v>41034.16597222222</v>
+        <v>41140.33263888889</v>
       </c>
       <c r="D6">
-        <v>11.17</v>
+        <v>27.38</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>717.6900000000001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>705.42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="J6">
-        <v>11.17</v>
+        <v>0.96</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="L6">
-        <v>11.17</v>
+        <v>478.77</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -774,632 +864,797 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>27.38</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>18</v>
+        <v>277.03</v>
+      </c>
+      <c r="Q6">
+        <v>31.50621552136363</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>34.02303348176625</v>
       </c>
       <c r="S6">
+        <v>0.3842016</v>
+      </c>
+      <c r="T6">
+        <v>0.111</v>
+      </c>
+      <c r="U6">
+        <v>31.53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3005</v>
+        <v>5553</v>
       </c>
       <c r="C7" s="2">
-        <v>41034.20763888889</v>
+        <v>41140.37430555555</v>
       </c>
       <c r="D7">
-        <v>11.14</v>
+        <v>30.28</v>
       </c>
       <c r="E7">
-        <v>50.99</v>
+        <v>1059.28</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>525</v>
       </c>
       <c r="G7">
-        <v>14.16</v>
+        <v>14.01</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1028.26</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="J7">
-        <v>11.14</v>
+        <v>0.99</v>
       </c>
       <c r="K7">
-        <v>19.7</v>
+        <v>0.48</v>
       </c>
       <c r="L7">
-        <v>11.50434196781362</v>
+        <v>637.61</v>
       </c>
       <c r="M7">
-        <v>29.69328646959075</v>
+        <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.28</v>
+      </c>
+      <c r="P7">
+        <v>413.68</v>
+      </c>
+      <c r="Q7">
+        <v>36.39784012268746</v>
+      </c>
+      <c r="R7">
+        <v>35.20275813843804</v>
+      </c>
+      <c r="S7">
         <v>0.3842016</v>
       </c>
-      <c r="O7">
-        <v>0.01</v>
-      </c>
-      <c r="P7">
-        <v>40</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="T7">
+        <v>0.164</v>
+      </c>
+      <c r="U7">
+        <v>31.24</v>
+      </c>
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3006</v>
+        <v>5554</v>
       </c>
       <c r="C8" s="2">
-        <v>41034.24930555555</v>
+        <v>41140.41597222222</v>
       </c>
       <c r="D8">
-        <v>11.12</v>
+        <v>31.44</v>
       </c>
       <c r="E8">
-        <v>65.23999999999999</v>
+        <v>1354.14</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>677</v>
       </c>
       <c r="G8">
-        <v>14.16</v>
+        <v>13.89</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1305.27</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="J8">
-        <v>11.12</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>25.22</v>
+        <v>0.62</v>
       </c>
       <c r="L8">
-        <v>11.56488388327148</v>
+        <v>787.04</v>
       </c>
       <c r="M8">
-        <v>29.70754316199148</v>
+        <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.44</v>
+      </c>
+      <c r="P8">
+        <v>533.92</v>
+      </c>
+      <c r="Q8">
+        <v>39.30836390911162</v>
+      </c>
+      <c r="R8">
+        <v>35.92187916037615</v>
+      </c>
+      <c r="S8">
         <v>0.3842016</v>
       </c>
-      <c r="O8">
-        <v>0.012</v>
-      </c>
-      <c r="P8">
-        <v>37.5</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
+        <v>0.211</v>
+      </c>
+      <c r="U8">
+        <v>31.17</v>
+      </c>
+      <c r="V8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3007</v>
+        <v>5555</v>
       </c>
       <c r="C9" s="2">
-        <v>41034.29097222222</v>
+        <v>41140.45763888889</v>
       </c>
       <c r="D9">
-        <v>11.55</v>
+        <v>32.6</v>
       </c>
       <c r="E9">
-        <v>84.81</v>
+        <v>1522.99</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>768</v>
       </c>
       <c r="G9">
-        <v>14.36</v>
+        <v>13.77</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1463.61</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="J9">
-        <v>11.55</v>
+        <v>1.01</v>
       </c>
       <c r="K9">
-        <v>32.23</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>12.09741605767448</v>
+        <v>895.23</v>
       </c>
       <c r="M9">
-        <v>29.82510571347458</v>
+        <v>0</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.6</v>
+      </c>
+      <c r="P9">
+        <v>606.36</v>
+      </c>
+      <c r="Q9">
+        <v>41.52254428354365</v>
+      </c>
+      <c r="R9">
+        <v>36.47003319711263</v>
+      </c>
+      <c r="S9">
         <v>0.3842016</v>
       </c>
-      <c r="O9">
-        <v>0.015</v>
-      </c>
-      <c r="P9">
-        <v>36.59</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="T9">
+        <v>0.239</v>
+      </c>
+      <c r="U9">
+        <v>31.12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3008</v>
+        <v>5556</v>
       </c>
       <c r="C10" s="2">
-        <v>41034.33263888889</v>
+        <v>41140.49930555555</v>
       </c>
       <c r="D10">
-        <v>11.97</v>
+        <v>33.76</v>
       </c>
       <c r="E10">
-        <v>158.94</v>
+        <v>1508.51</v>
       </c>
       <c r="F10">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="G10">
-        <v>14.52</v>
+        <v>13.71</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1450.07</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="J10">
-        <v>11.97</v>
+        <v>1.01</v>
       </c>
       <c r="K10">
-        <v>59.6</v>
+        <v>0.7</v>
       </c>
       <c r="L10">
-        <v>12.91733493847948</v>
+        <v>883.63</v>
       </c>
       <c r="M10">
-        <v>30.00974335407427</v>
+        <v>0</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.76</v>
+      </c>
+      <c r="P10">
+        <v>603.66</v>
+      </c>
+      <c r="Q10">
+        <v>42.64386786003314</v>
+      </c>
+      <c r="R10">
+        <v>36.74159439858167</v>
+      </c>
+      <c r="S10">
         <v>0.3842016</v>
       </c>
-      <c r="O10">
-        <v>0.025</v>
-      </c>
-      <c r="P10">
-        <v>32.89</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10">
+      <c r="T10">
+        <v>0.238</v>
+      </c>
+      <c r="U10">
+        <v>31.15</v>
+      </c>
+      <c r="V10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="X10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3009</v>
+        <v>5557</v>
       </c>
       <c r="C11" s="2">
-        <v>41034.37430555555</v>
+        <v>41140.54097222222</v>
       </c>
       <c r="D11">
-        <v>12.4</v>
+        <v>33.99</v>
       </c>
       <c r="E11">
-        <v>229.92</v>
+        <v>1323.81</v>
       </c>
       <c r="F11">
-        <v>109</v>
+        <v>671</v>
       </c>
       <c r="G11">
-        <v>14.65</v>
+        <v>13.7</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1276.95</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="J11">
-        <v>12.4</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>85.31999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="L11">
-        <v>13.72314733371041</v>
+        <v>832.03</v>
       </c>
       <c r="M11">
-        <v>30.19150968202671</v>
+        <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>33.99</v>
+      </c>
+      <c r="P11">
+        <v>530.3</v>
+      </c>
+      <c r="Q11">
+        <v>41.80934062905709</v>
+      </c>
+      <c r="R11">
+        <v>36.52411564382545</v>
+      </c>
+      <c r="S11">
         <v>0.3842016</v>
       </c>
-      <c r="O11">
-        <v>0.035</v>
-      </c>
-      <c r="P11">
-        <v>32.11</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11">
+      <c r="T11">
+        <v>0.21</v>
+      </c>
+      <c r="U11">
+        <v>31.3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="S11">
+      <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3010</v>
+        <v>5558</v>
       </c>
       <c r="C12" s="2">
-        <v>41034.41597222222</v>
+        <v>41140.58263888889</v>
       </c>
       <c r="D12">
-        <v>12.73</v>
+        <v>34.22</v>
       </c>
       <c r="E12">
-        <v>207.81</v>
+        <v>1020.84</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>518</v>
       </c>
       <c r="G12">
-        <v>14.58</v>
+        <v>13.69</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>992.48</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="J12">
-        <v>12.73</v>
+        <v>0.98</v>
       </c>
       <c r="K12">
-        <v>77.58</v>
+        <v>0.47</v>
       </c>
       <c r="L12">
-        <v>13.94014614069857</v>
+        <v>709.3</v>
       </c>
       <c r="M12">
-        <v>30.2377931519521</v>
+        <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>34.22</v>
+      </c>
+      <c r="P12">
+        <v>409.65</v>
+      </c>
+      <c r="Q12">
+        <v>40.28417660104788</v>
+      </c>
+      <c r="R12">
+        <v>36.13151436590128</v>
+      </c>
+      <c r="S12">
         <v>0.3842016</v>
       </c>
-      <c r="O12">
-        <v>0.032</v>
-      </c>
-      <c r="P12">
-        <v>32.32</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12">
+      <c r="T12">
+        <v>0.163</v>
+      </c>
+      <c r="U12">
+        <v>31.47</v>
+      </c>
+      <c r="V12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12">
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3011</v>
+        <v>5559</v>
       </c>
       <c r="C13" s="2">
-        <v>41034.45763888889</v>
+        <v>41140.62430555555</v>
       </c>
       <c r="D13">
-        <v>13.07</v>
+        <v>34.45</v>
       </c>
       <c r="E13">
-        <v>260.82</v>
+        <v>682.87</v>
       </c>
       <c r="F13">
-        <v>123</v>
+        <v>347</v>
       </c>
       <c r="G13">
-        <v>14.73</v>
+        <v>13.67</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>673.33</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J13">
-        <v>13.07</v>
+        <v>0.95</v>
       </c>
       <c r="K13">
-        <v>96.19</v>
+        <v>0.31</v>
       </c>
       <c r="L13">
-        <v>14.55200505217374</v>
+        <v>490.93</v>
       </c>
       <c r="M13">
-        <v>30.37614167779422</v>
+        <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.45</v>
+      </c>
+      <c r="P13">
+        <v>274.67</v>
+      </c>
+      <c r="Q13">
+        <v>38.54759380987457</v>
+      </c>
+      <c r="R13">
+        <v>35.68734588438377</v>
+      </c>
+      <c r="S13">
         <v>0.3842016</v>
       </c>
-      <c r="O13">
-        <v>0.04</v>
-      </c>
-      <c r="P13">
-        <v>32.52</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13">
+      <c r="T13">
+        <v>0.11</v>
+      </c>
+      <c r="U13">
+        <v>31.7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13">
         <v>1</v>
       </c>
-      <c r="S13">
+      <c r="X13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3012</v>
+        <v>5560</v>
       </c>
       <c r="C14" s="2">
-        <v>41034.49930555555</v>
+        <v>41140.66597222222</v>
       </c>
       <c r="D14">
-        <v>13.41</v>
+        <v>32.82</v>
       </c>
       <c r="E14">
-        <v>247.78</v>
+        <v>377.71</v>
       </c>
       <c r="F14">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="G14">
-        <v>14.71</v>
+        <v>13.66</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>381.07</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="J14">
-        <v>13.41</v>
+        <v>0.89</v>
       </c>
       <c r="K14">
-        <v>91.53</v>
+        <v>0.16</v>
       </c>
       <c r="L14">
-        <v>14.82406893588688</v>
+        <v>260.08</v>
       </c>
       <c r="M14">
-        <v>30.43531218629886</v>
+        <v>0</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>32.82</v>
+      </c>
+      <c r="P14">
+        <v>152.12</v>
+      </c>
+      <c r="Q14">
+        <v>35.12885669595232</v>
+      </c>
+      <c r="R14">
+        <v>34.84909185877343</v>
+      </c>
+      <c r="S14">
         <v>0.3842016</v>
       </c>
-      <c r="O14">
-        <v>0.038</v>
-      </c>
-      <c r="P14">
-        <v>32.48</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14">
+      <c r="T14">
+        <v>0.062</v>
+      </c>
+      <c r="U14">
+        <v>32.29</v>
+      </c>
+      <c r="V14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14">
         <v>1</v>
       </c>
-      <c r="S14">
+      <c r="X14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3013</v>
+        <v>5561</v>
       </c>
       <c r="C15" s="2">
-        <v>41034.54097222222</v>
+        <v>41140.70763888889</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>31.2</v>
       </c>
       <c r="E15">
-        <v>351.45</v>
+        <v>164.83</v>
       </c>
       <c r="F15">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>14.79</v>
+        <v>13.47</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>172.28</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>0.74</v>
       </c>
       <c r="K15">
-        <v>128.91</v>
+        <v>0.06</v>
       </c>
       <c r="L15">
-        <v>14.95934359991674</v>
+        <v>91.06</v>
       </c>
       <c r="M15">
-        <v>30.47230142016583</v>
+        <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>31.2</v>
+      </c>
+      <c r="P15">
+        <v>67.56</v>
+      </c>
+      <c r="Q15">
+        <v>32.27376331303623</v>
+      </c>
+      <c r="R15">
+        <v>34.16014518196838</v>
+      </c>
+      <c r="S15">
         <v>0.3842016</v>
       </c>
-      <c r="O15">
-        <v>0.053</v>
-      </c>
-      <c r="P15">
-        <v>32.12</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
+      <c r="T15">
+        <v>0.029</v>
+      </c>
+      <c r="U15">
+        <v>34.12</v>
+      </c>
+      <c r="V15" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3014</v>
+        <v>5562</v>
       </c>
       <c r="C16" s="2">
-        <v>41034.58263888889</v>
+        <v>41140.74930555555</v>
       </c>
       <c r="D16">
-        <v>12.58</v>
+        <v>29.57</v>
       </c>
       <c r="E16">
-        <v>186.24</v>
+        <v>36.19</v>
       </c>
       <c r="F16">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>14.7</v>
+        <v>13.23</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>40.62</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
-        <v>12.58</v>
+        <v>0.01</v>
       </c>
       <c r="K16">
-        <v>68.87</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>13.66275767699437</v>
+        <v>0.18</v>
       </c>
       <c r="M16">
-        <v>30.17515593745571</v>
+        <v>0</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>29.57</v>
+      </c>
+      <c r="P16">
+        <v>15.15</v>
+      </c>
+      <c r="Q16">
+        <v>29.87792925412037</v>
+      </c>
+      <c r="R16">
+        <v>33.59110758542812</v>
+      </c>
+      <c r="S16">
         <v>0.3842016</v>
       </c>
-      <c r="O16">
-        <v>0.029</v>
-      </c>
-      <c r="P16">
-        <v>32.95</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
+      <c r="T16">
+        <v>0.008</v>
+      </c>
+      <c r="U16">
+        <v>42.11</v>
+      </c>
+      <c r="V16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3015</v>
+        <v>5563</v>
       </c>
       <c r="C17" s="2">
-        <v>41034.62430555555</v>
+        <v>41140.79097222222</v>
       </c>
       <c r="D17">
-        <v>12.17</v>
+        <v>27.97</v>
       </c>
       <c r="E17">
-        <v>82.86</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>14.39</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1408,28 +1663,28 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.17</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>31.44</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>12.70617031950417</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>29.95811403317437</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.014</v>
+        <v>27.97</v>
       </c>
       <c r="P17">
-        <v>35</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>27.97</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1437,288 +1692,144 @@
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3016</v>
-      </c>
-      <c r="C18" s="2">
-        <v>41034.66597222222</v>
+        <v>88888</v>
       </c>
       <c r="D18">
-        <v>11.59</v>
+        <v>467.5</v>
       </c>
       <c r="E18">
-        <v>63.35</v>
+        <v>10389.04</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>5223</v>
       </c>
       <c r="G18">
-        <v>14.19</v>
+        <v>192.95</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10122.69</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.39</v>
       </c>
       <c r="J18">
-        <v>11.59</v>
+        <v>11.52</v>
       </c>
       <c r="K18">
-        <v>24.43</v>
+        <v>4.67</v>
       </c>
       <c r="L18">
-        <v>12.02349195697349</v>
+        <v>6610.85</v>
       </c>
       <c r="M18">
-        <v>29.80746803589752</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.012</v>
+        <v>467.5</v>
       </c>
       <c r="P18">
-        <v>38.71</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>18</v>
+        <v>4124.48</v>
+      </c>
+      <c r="Q18">
+        <v>528.847259103646</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>486.3062479995193</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>5.3788224</v>
+      </c>
+      <c r="T18">
+        <v>1.645</v>
+      </c>
+      <c r="U18">
+        <v>463.2</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3017</v>
-      </c>
-      <c r="C19" s="2">
-        <v>41034.70763888889</v>
+        <v>6349.142857142857</v>
       </c>
       <c r="D19">
-        <v>11.01</v>
+        <v>33.39285714285715</v>
       </c>
       <c r="E19">
-        <v>40.45</v>
+        <v>742.0742857142858</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>373.0714285714286</v>
       </c>
       <c r="G19">
-        <v>14.05</v>
+        <v>13.78214285714286</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>723.0492857142856</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8135714285714286</v>
       </c>
       <c r="J19">
-        <v>11.01</v>
+        <v>0.8228571428571428</v>
       </c>
       <c r="K19">
-        <v>15.79</v>
+        <v>0.3335714285714286</v>
       </c>
       <c r="L19">
-        <v>11.31709291673542</v>
+        <v>472.2035714285715</v>
       </c>
       <c r="M19">
-        <v>29.6517379922805</v>
+        <v>0</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.39285714285715</v>
+      </c>
+      <c r="P19">
+        <v>294.6057142857143</v>
+      </c>
+      <c r="Q19">
+        <v>37.774804221689</v>
+      </c>
+      <c r="R19">
+        <v>34.73616057139423</v>
+      </c>
+      <c r="S19">
         <v>0.3842016</v>
       </c>
-      <c r="O19">
-        <v>0.008</v>
-      </c>
-      <c r="P19">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3018</v>
-      </c>
-      <c r="C20" s="2">
-        <v>41034.74930555555</v>
-      </c>
-      <c r="D20">
-        <v>10.44</v>
-      </c>
-      <c r="E20">
-        <v>11.18</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>15.53</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>10.44</v>
-      </c>
-      <c r="K20">
-        <v>3.87</v>
-      </c>
-      <c r="L20">
-        <v>10.57283940363533</v>
-      </c>
-      <c r="M20">
-        <v>29.48757645996879</v>
-      </c>
-      <c r="N20">
-        <v>0.3842016</v>
-      </c>
-      <c r="O20">
-        <v>0.004</v>
-      </c>
-      <c r="P20">
-        <v>80</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>18</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3019</v>
-      </c>
-      <c r="C21" s="2">
-        <v>41034.79097222222</v>
-      </c>
-      <c r="D21">
-        <v>10.09</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>10.09</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>10.09</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>18</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>60190</v>
-      </c>
-      <c r="D22">
-        <v>231.82</v>
-      </c>
-      <c r="E22">
-        <v>2041.84</v>
-      </c>
-      <c r="F22">
-        <v>971</v>
-      </c>
-      <c r="G22">
-        <v>203.52</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>231.82</v>
-      </c>
-      <c r="K22">
-        <v>760.6799999999998</v>
-      </c>
-      <c r="L22">
-        <v>244.0050401834682</v>
-      </c>
-      <c r="M22">
-        <v>420.0287892761457</v>
-      </c>
-      <c r="N22">
-        <v>5.3788224</v>
-      </c>
-      <c r="O22">
-        <v>0.3270000000000001</v>
-      </c>
-      <c r="P22">
-        <v>535.1900000000001</v>
+      <c r="T19">
+        <v>0.1175</v>
+      </c>
+      <c r="U19">
+        <v>33.08571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Exports/CompleteResultWithoutCoolingEffect.xlsx
+++ b/Exports/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Index</t>
   </si>
@@ -22,7 +22,16 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tavg [°C]</t>
+    <t>Tamb [°C]</t>
+  </si>
+  <si>
+    <t>Tmcooling [°C]</t>
+  </si>
+  <si>
+    <t>Tm [°C]</t>
+  </si>
+  <si>
+    <t>T heatflux [°C]</t>
   </si>
   <si>
     <t>Power [W]</t>
@@ -37,6 +46,9 @@
     <t>ideal elec. energy yield [Wh]</t>
   </si>
   <si>
+    <t>Performance Ratio [-]</t>
+  </si>
+  <si>
     <t>Performance Ratio STC[-]</t>
   </si>
   <si>
@@ -55,13 +67,7 @@
     <t>HP_Thermal[Wh]</t>
   </si>
   <si>
-    <t>Tamb</t>
-  </si>
-  <si>
     <t>E_sdp_eff</t>
-  </si>
-  <si>
-    <t>T_out</t>
   </si>
   <si>
     <t>P_fan</t>
@@ -447,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,40 +529,46 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5548</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>41140.16597222222</v>
+        <v>40909.33333333334</v>
       </c>
       <c r="D2">
-        <v>20.64</v>
+        <v>11.35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11.35</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>33.19</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>14.41</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>36.67</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -568,368 +580,398 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.64</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>20.64</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>12.57</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>29.71503191153772</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>23</v>
+        <v>0.3842016</v>
+      </c>
+      <c r="V2">
+        <v>0.007</v>
       </c>
       <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+        <v>43.75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5549</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>41140.20763888889</v>
+        <v>40909.375</v>
       </c>
       <c r="D3">
-        <v>21.11</v>
+        <v>11.62</v>
       </c>
       <c r="E3">
-        <v>55.42</v>
+        <v>12.81</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>12.81</v>
       </c>
       <c r="G3">
-        <v>13.75</v>
+        <v>11.62</v>
       </c>
       <c r="H3">
-        <v>60.42</v>
+        <v>140.91</v>
       </c>
       <c r="I3">
-        <v>0.32</v>
+        <v>67</v>
       </c>
       <c r="J3">
-        <v>0.32</v>
+        <v>14.61</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>146.56</v>
       </c>
       <c r="L3">
-        <v>40.13</v>
+        <v>0.74</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="O3">
-        <v>21.11</v>
+        <v>0.05</v>
       </c>
       <c r="P3">
-        <v>22.19</v>
+        <v>76.72</v>
       </c>
       <c r="Q3">
-        <v>21.51623696497774</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>31.91796050961846</v>
+        <v>0</v>
       </c>
       <c r="S3">
+        <v>52.51</v>
+      </c>
+      <c r="T3">
+        <v>29.90901708002477</v>
+      </c>
+      <c r="U3">
         <v>0.3842016</v>
       </c>
-      <c r="T3">
-        <v>0.011</v>
-      </c>
-      <c r="U3">
-        <v>39.29</v>
-      </c>
-      <c r="V3" t="s">
-        <v>23</v>
+      <c r="V3">
+        <v>0.023</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+        <v>34.33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5550</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>41140.24930555555</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D4">
-        <v>21.59</v>
+        <v>11.87</v>
       </c>
       <c r="E4">
-        <v>171.58</v>
+        <v>13.32</v>
       </c>
       <c r="F4">
-        <v>85</v>
+        <v>13.32</v>
       </c>
       <c r="G4">
-        <v>14.02</v>
+        <v>11.87</v>
       </c>
       <c r="H4">
-        <v>178.02</v>
+        <v>167.06</v>
       </c>
       <c r="I4">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>14.69</v>
+      </c>
+      <c r="K4">
+        <v>172.61</v>
+      </c>
+      <c r="L4">
         <v>0.75</v>
       </c>
-      <c r="J4">
-        <v>0.76</v>
-      </c>
-      <c r="K4">
+      <c r="M4">
+        <v>0.75</v>
+      </c>
+      <c r="N4">
+        <v>0.75</v>
+      </c>
+      <c r="O4">
         <v>0.06</v>
       </c>
-      <c r="L4">
-        <v>185.51</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>21.59</v>
-      </c>
       <c r="P4">
-        <v>67.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="Q4">
-        <v>22.65200387654789</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>32.18450290506866</v>
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>61.84</v>
+      </c>
+      <c r="T4">
+        <v>29.99541175831767</v>
+      </c>
+      <c r="U4">
         <v>0.3842016</v>
       </c>
-      <c r="T4">
-        <v>0.028</v>
-      </c>
-      <c r="U4">
-        <v>32.94</v>
-      </c>
-      <c r="V4" t="s">
-        <v>23</v>
+      <c r="V4">
+        <v>0.026</v>
       </c>
       <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
+        <v>32.91</v>
+      </c>
+      <c r="X4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5551</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>41140.29097222222</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="D5">
-        <v>24.48</v>
+        <v>12.12</v>
       </c>
       <c r="E5">
-        <v>393.18</v>
+        <v>13.84</v>
       </c>
       <c r="F5">
-        <v>192</v>
+        <v>13.84</v>
       </c>
       <c r="G5">
-        <v>14.22</v>
+        <v>12.12</v>
       </c>
       <c r="H5">
-        <v>394.89</v>
+        <v>195.04</v>
       </c>
       <c r="I5">
-        <v>0.89</v>
+        <v>92</v>
       </c>
       <c r="J5">
-        <v>0.9</v>
+        <v>14.72</v>
       </c>
       <c r="K5">
-        <v>0.17</v>
+        <v>200.34</v>
       </c>
       <c r="L5">
-        <v>319.35</v>
+        <v>0.86</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="O5">
-        <v>24.48</v>
+        <v>0.08</v>
       </c>
       <c r="P5">
-        <v>151.09</v>
+        <v>98.5</v>
       </c>
       <c r="Q5">
-        <v>26.76852626229243</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>32.90116568827695</v>
+        <v>0</v>
       </c>
       <c r="S5">
+        <v>71.98</v>
+      </c>
+      <c r="T5">
+        <v>30.08464724337378</v>
+      </c>
+      <c r="U5">
         <v>0.3842016</v>
       </c>
-      <c r="T5">
-        <v>0.061</v>
-      </c>
-      <c r="U5">
-        <v>31.77</v>
-      </c>
-      <c r="V5" t="s">
-        <v>23</v>
+      <c r="V5">
+        <v>0.03</v>
       </c>
       <c r="W5">
+        <v>32.61</v>
+      </c>
+      <c r="X5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5552</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>41140.33263888889</v>
+        <v>40909.5</v>
       </c>
       <c r="D6">
-        <v>27.38</v>
+        <v>12.38</v>
       </c>
       <c r="E6">
-        <v>717.6900000000001</v>
+        <v>14.42</v>
       </c>
       <c r="F6">
-        <v>352</v>
+        <v>14.42</v>
       </c>
       <c r="G6">
-        <v>14.16</v>
+        <v>12.38</v>
       </c>
       <c r="H6">
-        <v>705.42</v>
+        <v>226.13</v>
       </c>
       <c r="I6">
-        <v>0.95</v>
+        <v>107</v>
       </c>
       <c r="J6">
-        <v>0.96</v>
+        <v>14.68</v>
       </c>
       <c r="K6">
-        <v>0.32</v>
+        <v>230.99</v>
       </c>
       <c r="L6">
-        <v>478.77</v>
+        <v>0.84</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="O6">
-        <v>27.38</v>
+        <v>0.09</v>
       </c>
       <c r="P6">
-        <v>277.03</v>
+        <v>111.23</v>
       </c>
       <c r="Q6">
-        <v>31.50621552136363</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>34.02303348176625</v>
+        <v>0</v>
       </c>
       <c r="S6">
+        <v>83.76000000000001</v>
+      </c>
+      <c r="T6">
+        <v>30.18179078262646</v>
+      </c>
+      <c r="U6">
         <v>0.3842016</v>
       </c>
-      <c r="T6">
-        <v>0.111</v>
-      </c>
-      <c r="U6">
-        <v>31.53</v>
-      </c>
-      <c r="V6" t="s">
-        <v>23</v>
+      <c r="V6">
+        <v>0.035</v>
       </c>
       <c r="W6">
+        <v>32.71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5553</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>41140.37430555555</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D7">
-        <v>30.28</v>
+        <v>12.38</v>
       </c>
       <c r="E7">
-        <v>1059.28</v>
+        <v>12.72</v>
       </c>
       <c r="F7">
-        <v>525</v>
+        <v>12.72</v>
       </c>
       <c r="G7">
-        <v>14.01</v>
+        <v>12.38</v>
       </c>
       <c r="H7">
-        <v>1028.26</v>
+        <v>34.97</v>
       </c>
       <c r="I7">
-        <v>0.98</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>0.99</v>
+        <v>14.29</v>
       </c>
       <c r="K7">
-        <v>0.48</v>
+        <v>38.59</v>
       </c>
       <c r="L7">
-        <v>637.61</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -938,146 +980,158 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.28</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>413.68</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>36.39784012268746</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>35.20275813843804</v>
+        <v>0</v>
       </c>
       <c r="S7">
+        <v>13.38</v>
+      </c>
+      <c r="T7">
+        <v>29.94292480675038</v>
+      </c>
+      <c r="U7">
         <v>0.3842016</v>
       </c>
-      <c r="T7">
-        <v>0.164</v>
-      </c>
-      <c r="U7">
-        <v>31.24</v>
-      </c>
-      <c r="V7" t="s">
-        <v>23</v>
+      <c r="V7">
+        <v>0.007</v>
       </c>
       <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
+        <v>41.18</v>
+      </c>
+      <c r="X7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5554</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>41140.41597222222</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D8">
-        <v>31.44</v>
+        <v>12.39</v>
       </c>
       <c r="E8">
-        <v>1354.14</v>
+        <v>13.2</v>
       </c>
       <c r="F8">
-        <v>677</v>
+        <v>13.2</v>
       </c>
       <c r="G8">
-        <v>13.89</v>
+        <v>12.39</v>
       </c>
       <c r="H8">
-        <v>1305.27</v>
+        <v>85.92</v>
       </c>
       <c r="I8">
-        <v>0.99</v>
+        <v>42</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>14.21</v>
       </c>
       <c r="K8">
-        <v>0.62</v>
+        <v>91.23</v>
       </c>
       <c r="L8">
-        <v>787.04</v>
+        <v>0.47</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="O8">
-        <v>31.44</v>
+        <v>0.02</v>
       </c>
       <c r="P8">
-        <v>533.92</v>
+        <v>36.41</v>
       </c>
       <c r="Q8">
-        <v>39.30836390911162</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>35.92187916037615</v>
+        <v>0</v>
       </c>
       <c r="S8">
+        <v>33.09</v>
+      </c>
+      <c r="T8">
+        <v>30.0119270869451</v>
+      </c>
+      <c r="U8">
         <v>0.3842016</v>
       </c>
-      <c r="T8">
-        <v>0.211</v>
-      </c>
-      <c r="U8">
-        <v>31.17</v>
-      </c>
-      <c r="V8" t="s">
-        <v>23</v>
+      <c r="V8">
+        <v>0.015</v>
       </c>
       <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
+        <v>35.71</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5555</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>41140.45763888889</v>
+        <v>40909.625</v>
       </c>
       <c r="D9">
-        <v>32.6</v>
+        <v>12.39</v>
       </c>
       <c r="E9">
-        <v>1522.99</v>
+        <v>12.39</v>
       </c>
       <c r="F9">
-        <v>768</v>
+        <v>12.39</v>
       </c>
       <c r="G9">
-        <v>13.77</v>
+        <v>12.39</v>
       </c>
       <c r="H9">
-        <v>1463.61</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>895.23</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1086,72 +1140,78 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.6</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>606.36</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>41.52254428354365</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>36.47003319711263</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>31.12</v>
-      </c>
-      <c r="V9" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5556</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>41140.49930555555</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D10">
-        <v>33.76</v>
+        <v>12.31</v>
       </c>
       <c r="E10">
-        <v>1508.51</v>
+        <v>12.31</v>
       </c>
       <c r="F10">
-        <v>764</v>
+        <v>12.31</v>
       </c>
       <c r="G10">
-        <v>13.71</v>
+        <v>12.31</v>
       </c>
       <c r="H10">
-        <v>1450.07</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>883.63</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1160,72 +1220,78 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.76</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>603.66</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>42.64386786003314</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>36.74159439858167</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>31.15</v>
-      </c>
-      <c r="V10" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5557</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>41140.54097222222</v>
+        <v>40909.70833333334</v>
       </c>
       <c r="D11">
-        <v>33.99</v>
+        <v>12.23</v>
       </c>
       <c r="E11">
-        <v>1323.81</v>
+        <v>12.23</v>
       </c>
       <c r="F11">
-        <v>671</v>
+        <v>12.23</v>
       </c>
       <c r="G11">
-        <v>13.7</v>
+        <v>12.23</v>
       </c>
       <c r="H11">
-        <v>1276.95</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>832.03</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1234,72 +1300,78 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.99</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>530.3</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>41.80934062905709</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>36.52411564382545</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>31.3</v>
-      </c>
-      <c r="V11" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5558</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>41140.58263888889</v>
+        <v>40909.75</v>
       </c>
       <c r="D12">
-        <v>34.22</v>
+        <v>12.15</v>
       </c>
       <c r="E12">
-        <v>1020.84</v>
+        <v>12.15</v>
       </c>
       <c r="F12">
-        <v>518</v>
+        <v>12.15</v>
       </c>
       <c r="G12">
-        <v>13.69</v>
+        <v>12.15</v>
       </c>
       <c r="H12">
-        <v>992.48</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>709.3</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1308,72 +1380,78 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.22</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>409.65</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>40.28417660104788</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>36.13151436590128</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>31.47</v>
-      </c>
-      <c r="V12" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5559</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>41140.62430555555</v>
+        <v>40909.79166666666</v>
       </c>
       <c r="D13">
-        <v>34.45</v>
+        <v>12.19</v>
       </c>
       <c r="E13">
-        <v>682.87</v>
+        <v>12.19</v>
       </c>
       <c r="F13">
-        <v>347</v>
+        <v>12.19</v>
       </c>
       <c r="G13">
-        <v>13.67</v>
+        <v>12.19</v>
       </c>
       <c r="H13">
-        <v>673.33</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>490.93</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1382,72 +1460,78 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.45</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>274.67</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>38.54759380987457</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>35.68734588438377</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>31.7</v>
-      </c>
-      <c r="V13" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5560</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>41140.66597222222</v>
+        <v>40909.83333333334</v>
       </c>
       <c r="D14">
-        <v>32.82</v>
+        <v>12.23</v>
       </c>
       <c r="E14">
-        <v>377.71</v>
+        <v>12.23</v>
       </c>
       <c r="F14">
-        <v>192</v>
+        <v>12.23</v>
       </c>
       <c r="G14">
-        <v>13.66</v>
+        <v>12.23</v>
       </c>
       <c r="H14">
-        <v>381.07</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>260.08</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1456,72 +1540,78 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>32.82</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>152.12</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>35.12885669595232</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>34.84909185877343</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>32.29</v>
-      </c>
-      <c r="V14" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5561</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>41140.70763888889</v>
+        <v>40909.875</v>
       </c>
       <c r="D15">
-        <v>31.2</v>
+        <v>12.27</v>
       </c>
       <c r="E15">
-        <v>164.83</v>
+        <v>12.27</v>
       </c>
       <c r="F15">
-        <v>85</v>
+        <v>12.27</v>
       </c>
       <c r="G15">
-        <v>13.47</v>
+        <v>12.27</v>
       </c>
       <c r="H15">
-        <v>172.28</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>91.06</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1530,72 +1620,78 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>67.56</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>32.27376331303623</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>34.16014518196838</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>34.12</v>
-      </c>
-      <c r="V15" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5562</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>41140.74930555555</v>
+        <v>40909.91666666666</v>
       </c>
       <c r="D16">
-        <v>29.57</v>
+        <v>12.18</v>
       </c>
       <c r="E16">
-        <v>36.19</v>
+        <v>12.18</v>
       </c>
       <c r="F16">
-        <v>19</v>
+        <v>12.18</v>
       </c>
       <c r="G16">
-        <v>13.23</v>
+        <v>12.18</v>
       </c>
       <c r="H16">
-        <v>40.62</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1604,57 +1700,63 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.57</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>15.15</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>29.87792925412037</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>33.59110758542812</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>42.11</v>
-      </c>
-      <c r="V16" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5563</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>41140.79097222222</v>
+        <v>40909.95833333334</v>
       </c>
       <c r="D17">
-        <v>27.97</v>
+        <v>12.1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1678,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.97</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27.97</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1698,49 +1800,58 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17" t="s">
-        <v>23</v>
+      <c r="V17">
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88888</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>40910</v>
       </c>
       <c r="D18">
-        <v>467.5</v>
+        <v>12.02</v>
       </c>
       <c r="E18">
-        <v>10389.04</v>
+        <v>12.02</v>
       </c>
       <c r="F18">
-        <v>5223</v>
+        <v>12.02</v>
       </c>
       <c r="G18">
-        <v>192.95</v>
+        <v>12.02</v>
       </c>
       <c r="H18">
-        <v>10122.69</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>11.39</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6610.85</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1749,87 +1860,176 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>467.5</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>4124.48</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>528.847259103646</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>486.3062479995193</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>5.3788224</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1.645</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>463.2</v>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6349.142857142857</v>
+        <v>272</v>
       </c>
       <c r="D19">
-        <v>33.39285714285715</v>
+        <v>206.18</v>
       </c>
       <c r="E19">
-        <v>742.0742857142858</v>
+        <v>214.05</v>
       </c>
       <c r="F19">
-        <v>373.0714285714286</v>
+        <v>214.05</v>
       </c>
       <c r="G19">
-        <v>13.78214285714286</v>
+        <v>206.18</v>
       </c>
       <c r="H19">
-        <v>723.0492857142856</v>
+        <v>883.22</v>
       </c>
       <c r="I19">
-        <v>0.8135714285714286</v>
+        <v>420</v>
       </c>
       <c r="J19">
-        <v>0.8228571428571428</v>
+        <v>101.61</v>
       </c>
       <c r="K19">
-        <v>0.3335714285714286</v>
+        <v>916.9900000000001</v>
       </c>
       <c r="L19">
-        <v>472.2035714285715</v>
+        <v>3.66</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="O19">
-        <v>33.39285714285715</v>
+        <v>0.3</v>
       </c>
       <c r="P19">
-        <v>294.6057142857143</v>
+        <v>411.0599999999999</v>
       </c>
       <c r="Q19">
-        <v>37.774804221689</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>34.73616057139423</v>
+        <v>0</v>
       </c>
       <c r="S19">
+        <v>329.13</v>
+      </c>
+      <c r="T19">
+        <v>209.8407506695759</v>
+      </c>
+      <c r="U19">
+        <v>2.6894112</v>
+      </c>
+      <c r="V19">
+        <v>0.143</v>
+      </c>
+      <c r="W19">
+        <v>253.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>38.85714285714285</v>
+      </c>
+      <c r="D20">
+        <v>29.45428571428571</v>
+      </c>
+      <c r="E20">
+        <v>30.57857142857143</v>
+      </c>
+      <c r="F20">
+        <v>30.57857142857143</v>
+      </c>
+      <c r="G20">
+        <v>29.45428571428571</v>
+      </c>
+      <c r="H20">
+        <v>126.1742857142857</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>14.51571428571429</v>
+      </c>
+      <c r="K20">
+        <v>130.9985714285714</v>
+      </c>
+      <c r="L20">
+        <v>0.5228571428571428</v>
+      </c>
+      <c r="M20">
+        <v>0.5114285714285715</v>
+      </c>
+      <c r="N20">
+        <v>0.5157142857142857</v>
+      </c>
+      <c r="O20">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="P20">
+        <v>58.72285714285714</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>47.01857142857143</v>
+      </c>
+      <c r="T20">
+        <v>29.97725009565369</v>
+      </c>
+      <c r="U20">
         <v>0.3842016</v>
       </c>
-      <c r="T19">
-        <v>0.1175</v>
-      </c>
-      <c r="U19">
-        <v>33.08571428571429</v>
+      <c r="V20">
+        <v>0.02042857142857143</v>
+      </c>
+      <c r="W20">
+        <v>36.17142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Exports/CompleteResultWithoutCoolingEffect.xlsx
+++ b/Exports/CompleteResultWithoutCoolingEffect.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Index</t>
   </si>
@@ -34,7 +34,10 @@
     <t>T heatflux [°C]</t>
   </si>
   <si>
-    <t>Power [W]</t>
+    <t>Power-DC [W]</t>
+  </si>
+  <si>
+    <t>Power-AC [W]</t>
   </si>
   <si>
     <t>Effective Irradiance [W/m^2]</t>
@@ -453,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,40 +538,43 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>40909.33333333334</v>
+        <v>40909</v>
       </c>
       <c r="D2">
-        <v>11.35</v>
+        <v>10.78</v>
       </c>
       <c r="E2">
-        <v>11.67</v>
+        <v>10.78</v>
       </c>
       <c r="F2">
-        <v>11.67</v>
+        <v>10.78</v>
       </c>
       <c r="G2">
-        <v>11.35</v>
+        <v>10.78</v>
       </c>
       <c r="H2">
-        <v>33.19</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.41</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>36.67</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -592,78 +598,81 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>12.57</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>29.71503191153772</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>43.75</v>
-      </c>
-      <c r="X2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40909.375</v>
+        <v>40909.04166666666</v>
       </c>
       <c r="D3">
-        <v>11.62</v>
+        <v>10.73</v>
       </c>
       <c r="E3">
-        <v>12.81</v>
+        <v>10.73</v>
       </c>
       <c r="F3">
-        <v>12.81</v>
+        <v>10.73</v>
       </c>
       <c r="G3">
-        <v>11.62</v>
+        <v>10.73</v>
       </c>
       <c r="H3">
-        <v>140.91</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.61</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>146.56</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>76.72</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -672,78 +681,81 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>52.51</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>29.90901708002477</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>34.33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40909.41666666666</v>
+        <v>40909.08333333334</v>
       </c>
       <c r="D4">
-        <v>11.87</v>
+        <v>10.68</v>
       </c>
       <c r="E4">
-        <v>13.32</v>
+        <v>10.68</v>
       </c>
       <c r="F4">
-        <v>13.32</v>
+        <v>10.68</v>
       </c>
       <c r="G4">
-        <v>11.87</v>
+        <v>10.68</v>
       </c>
       <c r="H4">
-        <v>167.06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>14.69</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>172.61</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>88.2</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -752,78 +764,81 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>61.84</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>29.99541175831767</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>32.91</v>
-      </c>
-      <c r="X4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>26</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>40909.45833333334</v>
+        <v>40909.125</v>
       </c>
       <c r="D5">
-        <v>12.12</v>
+        <v>10.63</v>
       </c>
       <c r="E5">
-        <v>13.84</v>
+        <v>10.63</v>
       </c>
       <c r="F5">
-        <v>13.84</v>
+        <v>10.63</v>
       </c>
       <c r="G5">
-        <v>12.12</v>
+        <v>10.63</v>
       </c>
       <c r="H5">
-        <v>195.04</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.72</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>200.34</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>98.5</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -832,78 +847,81 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>71.98</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>30.08464724337378</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>32.61</v>
-      </c>
-      <c r="X5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>26</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>40909.5</v>
+        <v>40909.16666666666</v>
       </c>
       <c r="D6">
-        <v>12.38</v>
+        <v>10.7</v>
       </c>
       <c r="E6">
-        <v>14.42</v>
+        <v>10.7</v>
       </c>
       <c r="F6">
-        <v>14.42</v>
+        <v>10.7</v>
       </c>
       <c r="G6">
-        <v>12.38</v>
+        <v>10.7</v>
       </c>
       <c r="H6">
-        <v>226.13</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.68</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>230.99</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>111.23</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -912,63 +930,66 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>83.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>30.18179078262646</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>32.71</v>
-      </c>
-      <c r="X6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>26</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>40909.54166666666</v>
+        <v>40909.20833333334</v>
       </c>
       <c r="D7">
-        <v>12.38</v>
+        <v>10.76</v>
       </c>
       <c r="E7">
-        <v>12.72</v>
+        <v>10.76</v>
       </c>
       <c r="F7">
-        <v>12.72</v>
+        <v>10.76</v>
       </c>
       <c r="G7">
-        <v>12.38</v>
+        <v>10.76</v>
       </c>
       <c r="H7">
-        <v>34.97</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>38.59</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -992,78 +1013,81 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>13.38</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>29.94292480675038</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>41.18</v>
-      </c>
-      <c r="X7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>26</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>40909.58333333334</v>
+        <v>40909.25</v>
       </c>
       <c r="D8">
-        <v>12.39</v>
+        <v>10.83</v>
       </c>
       <c r="E8">
-        <v>13.2</v>
+        <v>10.83</v>
       </c>
       <c r="F8">
-        <v>13.2</v>
+        <v>10.83</v>
       </c>
       <c r="G8">
-        <v>12.39</v>
+        <v>10.83</v>
       </c>
       <c r="H8">
-        <v>85.92</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>14.21</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>91.23</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>36.41</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1072,51 +1096,54 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>30.0119270869451</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.3842016</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>35.71</v>
-      </c>
-      <c r="X8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>40909.625</v>
+        <v>40909.29166666666</v>
       </c>
       <c r="D9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="E9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="F9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="G9">
-        <v>12.39</v>
+        <v>11.09</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1166,52 +1193,55 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>26</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40909.33333333334</v>
+      </c>
+      <c r="D10">
+        <v>11.35</v>
+      </c>
+      <c r="E10">
+        <v>12.01</v>
+      </c>
+      <c r="F10">
+        <v>12.01</v>
+      </c>
+      <c r="G10">
+        <v>11.35</v>
+      </c>
+      <c r="H10">
+        <v>33.13</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
-        <v>40909.66666666666</v>
-      </c>
-      <c r="D10">
-        <v>12.31</v>
-      </c>
-      <c r="E10">
-        <v>12.31</v>
-      </c>
-      <c r="F10">
-        <v>12.31</v>
-      </c>
-      <c r="G10">
-        <v>12.31</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.38</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>36.62</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1235,78 +1265,81 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>12.58</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>29.73030965378678</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="X10">
+        <v>56.25</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>26</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>40909.70833333334</v>
+        <v>40909.375</v>
       </c>
       <c r="D11">
-        <v>12.23</v>
+        <v>11.62</v>
       </c>
       <c r="E11">
-        <v>12.23</v>
+        <v>14.17</v>
       </c>
       <c r="F11">
-        <v>12.23</v>
+        <v>14.17</v>
       </c>
       <c r="G11">
-        <v>12.23</v>
+        <v>11.62</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>140.08</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>102.35</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.52</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>145.84</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>76.11</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1315,78 +1348,81 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>52.54</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>29.97310309773996</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
+        <v>0.031</v>
+      </c>
+      <c r="X11">
+        <v>46.27</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>26</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>40909.75</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="D12">
-        <v>12.15</v>
+        <v>11.87</v>
       </c>
       <c r="E12">
-        <v>12.15</v>
+        <v>14.93</v>
       </c>
       <c r="F12">
-        <v>12.15</v>
+        <v>14.93</v>
       </c>
       <c r="G12">
-        <v>12.15</v>
+        <v>11.87</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>165.89</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>127.7</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.58</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>171.6</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>87.42</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1395,78 +1431,81 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>61.89</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>30.07102726128756</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
+        <v>0.036</v>
+      </c>
+      <c r="X12">
+        <v>45.57</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>26</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>40909.79166666666</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="D13">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="E13">
-        <v>12.19</v>
+        <v>15.74</v>
       </c>
       <c r="F13">
-        <v>12.19</v>
+        <v>15.74</v>
       </c>
       <c r="G13">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>193.46</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>154.77</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>198.96</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>97.53</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1475,78 +1514,81 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>30.17281903802917</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
+        <v>0.041</v>
+      </c>
+      <c r="X13">
+        <v>44.57</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>26</v>
       </c>
       <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>40909.83333333334</v>
+        <v>40909.5</v>
       </c>
       <c r="D14">
-        <v>12.23</v>
+        <v>12.38</v>
       </c>
       <c r="E14">
-        <v>12.23</v>
+        <v>16.62</v>
       </c>
       <c r="F14">
-        <v>12.23</v>
+        <v>16.62</v>
       </c>
       <c r="G14">
-        <v>12.23</v>
+        <v>12.38</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>224.02</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>184.78</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.54</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>229.14</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>109.99</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1555,63 +1597,66 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>83.84</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>30.2845926770322</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
+        <v>0.048</v>
+      </c>
+      <c r="X14">
+        <v>44.86</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>26</v>
       </c>
       <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>40909.875</v>
+        <v>40909.54166666666</v>
       </c>
       <c r="D15">
-        <v>12.27</v>
+        <v>12.38</v>
       </c>
       <c r="E15">
-        <v>12.27</v>
+        <v>13.09</v>
       </c>
       <c r="F15">
-        <v>12.27</v>
+        <v>13.09</v>
       </c>
       <c r="G15">
-        <v>12.27</v>
+        <v>12.38</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.91</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.26</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>38.54</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1635,78 +1680,81 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>29.95924822170625</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="X15">
+        <v>52.94</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>26</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>40909.91666666666</v>
+        <v>40909.58333333334</v>
       </c>
       <c r="D16">
-        <v>12.18</v>
+        <v>12.39</v>
       </c>
       <c r="E16">
-        <v>12.18</v>
+        <v>14.07</v>
       </c>
       <c r="F16">
-        <v>12.18</v>
+        <v>14.07</v>
       </c>
       <c r="G16">
-        <v>12.18</v>
+        <v>12.39</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>85.58</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.15</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>90.95</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>36.16</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1715,48 +1763,51 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>30.05235983972526</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.3842016</v>
       </c>
       <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
+        <v>0.02</v>
+      </c>
+      <c r="X16">
+        <v>47.62</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>26</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>40909.95833333334</v>
+        <v>40909.625</v>
       </c>
       <c r="D17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="E17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="F17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="G17">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1806,37 +1857,40 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>26</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>40910</v>
+        <v>40909.66666666666</v>
       </c>
       <c r="D18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="E18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="F18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="G18">
-        <v>12.02</v>
+        <v>12.31</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1886,61 +1940,67 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>26</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>272</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>40909.70833333334</v>
       </c>
       <c r="D19">
-        <v>206.18</v>
+        <v>12.23</v>
       </c>
       <c r="E19">
-        <v>214.05</v>
+        <v>12.23</v>
       </c>
       <c r="F19">
-        <v>214.05</v>
+        <v>12.23</v>
       </c>
       <c r="G19">
-        <v>206.18</v>
+        <v>12.23</v>
       </c>
       <c r="H19">
-        <v>883.22</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>101.61</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>916.9900000000001</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>411.0599999999999</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1949,87 +2009,671 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>329.13</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>209.8407506695759</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>2.6894112</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>253.2</v>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.85714285714285</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40909.75</v>
       </c>
       <c r="D20">
-        <v>29.45428571428571</v>
+        <v>12.15</v>
       </c>
       <c r="E20">
-        <v>30.57857142857143</v>
+        <v>12.15</v>
       </c>
       <c r="F20">
-        <v>30.57857142857143</v>
+        <v>12.15</v>
       </c>
       <c r="G20">
-        <v>29.45428571428571</v>
+        <v>12.15</v>
       </c>
       <c r="H20">
-        <v>126.1742857142857</v>
+        <v>0</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40909.79166666666</v>
+      </c>
+      <c r="D21">
+        <v>12.19</v>
+      </c>
+      <c r="E21">
+        <v>12.19</v>
+      </c>
+      <c r="F21">
+        <v>12.19</v>
+      </c>
+      <c r="G21">
+        <v>12.19</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40909.83333333334</v>
+      </c>
+      <c r="D22">
+        <v>12.23</v>
+      </c>
+      <c r="E22">
+        <v>12.23</v>
+      </c>
+      <c r="F22">
+        <v>12.23</v>
+      </c>
+      <c r="G22">
+        <v>12.23</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>40909.875</v>
+      </c>
+      <c r="D23">
+        <v>12.27</v>
+      </c>
+      <c r="E23">
+        <v>12.27</v>
+      </c>
+      <c r="F23">
+        <v>12.27</v>
+      </c>
+      <c r="G23">
+        <v>12.27</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>40909.91666666666</v>
+      </c>
+      <c r="D24">
+        <v>12.18</v>
+      </c>
+      <c r="E24">
+        <v>12.18</v>
+      </c>
+      <c r="F24">
+        <v>12.18</v>
+      </c>
+      <c r="G24">
+        <v>12.18</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>40909.95833333334</v>
+      </c>
+      <c r="D25">
+        <v>12.1</v>
+      </c>
+      <c r="E25">
+        <v>12.1</v>
+      </c>
+      <c r="F25">
+        <v>12.1</v>
+      </c>
+      <c r="G25">
+        <v>12.1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>276</v>
+      </c>
+      <c r="D26">
+        <v>280.36</v>
+      </c>
+      <c r="E26">
+        <v>296.88</v>
+      </c>
+      <c r="F26">
+        <v>296.88</v>
+      </c>
+      <c r="G26">
+        <v>280.36</v>
+      </c>
+      <c r="H26">
+        <v>877.0700000000001</v>
+      </c>
+      <c r="I26">
+        <v>618.4000000000001</v>
+      </c>
+      <c r="J26">
+        <v>420</v>
+      </c>
+      <c r="K26">
+        <v>101.03</v>
+      </c>
+      <c r="L26">
+        <v>911.65</v>
+      </c>
+      <c r="M26">
+        <v>3.56</v>
+      </c>
+      <c r="N26">
+        <v>3.57</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
+        <v>0.29</v>
+      </c>
+      <c r="Q26">
+        <v>407.21</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>329.37</v>
+      </c>
+      <c r="U26">
+        <v>210.2434597893072</v>
+      </c>
+      <c r="V26">
+        <v>2.6894112</v>
+      </c>
+      <c r="W26">
+        <v>0.194</v>
+      </c>
+      <c r="X26">
+        <v>338.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>39.42857142857143</v>
+      </c>
+      <c r="D27">
+        <v>40.05142857142857</v>
+      </c>
+      <c r="E27">
+        <v>42.41142857142857</v>
+      </c>
+      <c r="F27">
+        <v>42.41142857142857</v>
+      </c>
+      <c r="G27">
+        <v>40.05142857142857</v>
+      </c>
+      <c r="H27">
+        <v>125.2957142857143</v>
+      </c>
+      <c r="I27">
+        <v>88.34285714285716</v>
+      </c>
+      <c r="J27">
         <v>60</v>
       </c>
-      <c r="J20">
-        <v>14.51571428571429</v>
-      </c>
-      <c r="K20">
-        <v>130.9985714285714</v>
-      </c>
-      <c r="L20">
-        <v>0.5228571428571428</v>
-      </c>
-      <c r="M20">
-        <v>0.5114285714285715</v>
-      </c>
-      <c r="N20">
-        <v>0.5157142857142857</v>
-      </c>
-      <c r="O20">
-        <v>0.04285714285714286</v>
-      </c>
-      <c r="P20">
-        <v>58.72285714285714</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>47.01857142857143</v>
-      </c>
-      <c r="T20">
-        <v>29.97725009565369</v>
-      </c>
-      <c r="U20">
+      <c r="K27">
+        <v>14.43285714285714</v>
+      </c>
+      <c r="L27">
+        <v>130.2357142857143</v>
+      </c>
+      <c r="M27">
+        <v>0.5085714285714286</v>
+      </c>
+      <c r="N27">
+        <v>0.51</v>
+      </c>
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+      <c r="P27">
+        <v>0.04142857142857143</v>
+      </c>
+      <c r="Q27">
+        <v>58.17285714285714</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>47.05285714285714</v>
+      </c>
+      <c r="U27">
+        <v>30.03477996990103</v>
+      </c>
+      <c r="V27">
         <v>0.3842016</v>
       </c>
-      <c r="V20">
-        <v>0.02042857142857143</v>
-      </c>
-      <c r="W20">
-        <v>36.17142857142857</v>
+      <c r="W27">
+        <v>0.02771428571428572</v>
+      </c>
+      <c r="X27">
+        <v>48.29714285714287</v>
       </c>
     </row>
   </sheetData>
